--- a/assets/Questions from web/Q&As  - from -BBACA_502-_Web-Technologies_r2.xlsx
+++ b/assets/Questions from web/Q&As  - from -BBACA_502-_Web-Technologies_r2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reeveschragger/Documents/Bootcamp/Challenges/BC04-02-Code-Quiz/assets/Questions from web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FE6DE4-38C1-A34E-9E61-79856AB44969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE12151-3631-6947-BA77-F7C28EAFB4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16400" activeTab="4" xr2:uid="{86690AC4-0DBF-0049-BCBA-CC73CA89135E}"/>
   </bookViews>
@@ -51623,7 +51623,7 @@
       </c>
       <c r="J2" s="4" t="str">
         <f ca="1">MID(H2,8,1) &amp; "_" &amp; I2 &amp; "_" &amp; INT(RAND()*10000)</f>
-        <v>1_1_4043</v>
+        <v>1_1_5951</v>
       </c>
       <c r="K2" s="4" t="str">
         <f>TRIM(MID(B2,LEN(I2)+2,10000))</f>
@@ -51684,7 +51684,7 @@
       </c>
       <c r="J3" s="4" t="str">
         <f t="shared" ref="J3:J66" ca="1" si="2">MID(H3,8,1) &amp; "_" &amp; I3 &amp; "_" &amp; INT(RAND()*10000)</f>
-        <v>1_2_540</v>
+        <v>1_2_1337</v>
       </c>
       <c r="K3" s="4" t="str">
         <f t="shared" ref="K3:K66" si="3">TRIM(MID(B3,LEN(I3)+2,10000))</f>
@@ -51745,7 +51745,7 @@
       </c>
       <c r="J4" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_3_7334</v>
+        <v>1_3_6799</v>
       </c>
       <c r="K4" s="4" t="str">
         <f t="shared" si="3"/>
@@ -51806,7 +51806,7 @@
       </c>
       <c r="J5" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_4_9990</v>
+        <v>1_4_654</v>
       </c>
       <c r="K5" s="4" t="str">
         <f t="shared" si="3"/>
@@ -51867,7 +51867,7 @@
       </c>
       <c r="J6" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_5_1093</v>
+        <v>1_5_3343</v>
       </c>
       <c r="K6" s="4" t="str">
         <f t="shared" si="3"/>
@@ -51928,7 +51928,7 @@
       </c>
       <c r="J7" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_6_295</v>
+        <v>1_6_3873</v>
       </c>
       <c r="K7" s="4" t="str">
         <f t="shared" si="3"/>
@@ -51989,7 +51989,7 @@
       </c>
       <c r="J8" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_7_8929</v>
+        <v>1_7_4398</v>
       </c>
       <c r="K8" s="4" t="str">
         <f t="shared" si="3"/>
@@ -52050,7 +52050,7 @@
       </c>
       <c r="J9" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_8_2501</v>
+        <v>1_8_7448</v>
       </c>
       <c r="K9" s="4" t="str">
         <f t="shared" si="3"/>
@@ -52111,7 +52111,7 @@
       </c>
       <c r="J10" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_9_3510</v>
+        <v>1_9_1740</v>
       </c>
       <c r="K10" s="4" t="str">
         <f t="shared" si="3"/>
@@ -52172,7 +52172,7 @@
       </c>
       <c r="J11" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_10_1874</v>
+        <v>1_10_1233</v>
       </c>
       <c r="K11" s="4" t="str">
         <f t="shared" si="3"/>
@@ -52233,7 +52233,7 @@
       </c>
       <c r="J12" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_11_8726</v>
+        <v>1_11_3988</v>
       </c>
       <c r="K12" s="4" t="str">
         <f t="shared" si="3"/>
@@ -52294,7 +52294,7 @@
       </c>
       <c r="J13" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_12_3720</v>
+        <v>1_12_3238</v>
       </c>
       <c r="K13" s="4" t="str">
         <f t="shared" si="3"/>
@@ -52355,7 +52355,7 @@
       </c>
       <c r="J14" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_13_6962</v>
+        <v>1_13_58</v>
       </c>
       <c r="K14" s="4" t="str">
         <f t="shared" si="3"/>
@@ -52416,7 +52416,7 @@
       </c>
       <c r="J15" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_14_3137</v>
+        <v>1_14_9089</v>
       </c>
       <c r="K15" s="4" t="str">
         <f t="shared" si="3"/>
@@ -52477,7 +52477,7 @@
       </c>
       <c r="J16" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_15_7579</v>
+        <v>1_15_7683</v>
       </c>
       <c r="K16" s="4" t="str">
         <f t="shared" si="3"/>
@@ -52538,7 +52538,7 @@
       </c>
       <c r="J17" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_16_6448</v>
+        <v>1_16_6634</v>
       </c>
       <c r="K17" s="4" t="str">
         <f t="shared" si="3"/>
@@ -52599,7 +52599,7 @@
       </c>
       <c r="J18" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_17_6800</v>
+        <v>1_17_6462</v>
       </c>
       <c r="K18" s="4" t="str">
         <f t="shared" si="3"/>
@@ -52660,7 +52660,7 @@
       </c>
       <c r="J19" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_18_2889</v>
+        <v>1_18_6098</v>
       </c>
       <c r="K19" s="4" t="str">
         <f t="shared" si="3"/>
@@ -52721,7 +52721,7 @@
       </c>
       <c r="J20" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_19_1153</v>
+        <v>1_19_471</v>
       </c>
       <c r="K20" s="4" t="str">
         <f t="shared" si="3"/>
@@ -52782,7 +52782,7 @@
       </c>
       <c r="J21" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_20_8599</v>
+        <v>1_20_2181</v>
       </c>
       <c r="K21" s="4" t="str">
         <f t="shared" si="3"/>
@@ -52843,7 +52843,7 @@
       </c>
       <c r="J22" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_21_7770</v>
+        <v>1_21_4059</v>
       </c>
       <c r="K22" s="4" t="str">
         <f t="shared" si="3"/>
@@ -52904,7 +52904,7 @@
       </c>
       <c r="J23" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_22_7428</v>
+        <v>1_22_3451</v>
       </c>
       <c r="K23" s="4" t="str">
         <f t="shared" si="3"/>
@@ -52965,7 +52965,7 @@
       </c>
       <c r="J24" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_23_6729</v>
+        <v>1_23_1010</v>
       </c>
       <c r="K24" s="4" t="str">
         <f t="shared" si="3"/>
@@ -53026,7 +53026,7 @@
       </c>
       <c r="J25" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_24_7846</v>
+        <v>1_24_8047</v>
       </c>
       <c r="K25" s="4" t="str">
         <f t="shared" si="3"/>
@@ -53087,7 +53087,7 @@
       </c>
       <c r="J26" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_25_6184</v>
+        <v>1_25_2247</v>
       </c>
       <c r="K26" s="4" t="str">
         <f t="shared" si="3"/>
@@ -53148,7 +53148,7 @@
       </c>
       <c r="J27" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_26_9483</v>
+        <v>1_26_1660</v>
       </c>
       <c r="K27" s="4" t="str">
         <f t="shared" si="3"/>
@@ -53209,7 +53209,7 @@
       </c>
       <c r="J28" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_27_8594</v>
+        <v>1_27_7439</v>
       </c>
       <c r="K28" s="4" t="str">
         <f t="shared" si="3"/>
@@ -53270,7 +53270,7 @@
       </c>
       <c r="J29" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_28_7233</v>
+        <v>1_28_4881</v>
       </c>
       <c r="K29" s="4" t="str">
         <f t="shared" si="3"/>
@@ -53331,7 +53331,7 @@
       </c>
       <c r="J30" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_29_3941</v>
+        <v>1_29_4360</v>
       </c>
       <c r="K30" s="4" t="str">
         <f t="shared" si="3"/>
@@ -53392,7 +53392,7 @@
       </c>
       <c r="J31" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_30_9671</v>
+        <v>1_30_3372</v>
       </c>
       <c r="K31" s="4" t="str">
         <f t="shared" si="3"/>
@@ -53453,7 +53453,7 @@
       </c>
       <c r="J32" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_31_4053</v>
+        <v>1_31_983</v>
       </c>
       <c r="K32" s="4" t="str">
         <f t="shared" si="3"/>
@@ -53514,7 +53514,7 @@
       </c>
       <c r="J33" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_32_1679</v>
+        <v>1_32_293</v>
       </c>
       <c r="K33" s="4" t="str">
         <f t="shared" si="3"/>
@@ -53575,7 +53575,7 @@
       </c>
       <c r="J34" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_33_2585</v>
+        <v>1_33_8848</v>
       </c>
       <c r="K34" s="4" t="str">
         <f t="shared" si="3"/>
@@ -53636,7 +53636,7 @@
       </c>
       <c r="J35" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_34_1281</v>
+        <v>1_34_8886</v>
       </c>
       <c r="K35" s="4" t="str">
         <f t="shared" si="3"/>
@@ -53697,7 +53697,7 @@
       </c>
       <c r="J36" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_35_7126</v>
+        <v>1_35_9666</v>
       </c>
       <c r="K36" s="4" t="str">
         <f t="shared" si="3"/>
@@ -53758,7 +53758,7 @@
       </c>
       <c r="J37" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_36_8069</v>
+        <v>1_36_8884</v>
       </c>
       <c r="K37" s="4" t="str">
         <f t="shared" si="3"/>
@@ -53819,7 +53819,7 @@
       </c>
       <c r="J38" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_37_816</v>
+        <v>1_37_6157</v>
       </c>
       <c r="K38" s="4" t="str">
         <f t="shared" si="3"/>
@@ -53880,7 +53880,7 @@
       </c>
       <c r="J39" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_38_4371</v>
+        <v>1_38_3824</v>
       </c>
       <c r="K39" s="4" t="str">
         <f t="shared" si="3"/>
@@ -53941,7 +53941,7 @@
       </c>
       <c r="J40" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_39_1586</v>
+        <v>1_39_7294</v>
       </c>
       <c r="K40" s="4" t="str">
         <f t="shared" si="3"/>
@@ -54002,7 +54002,7 @@
       </c>
       <c r="J41" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_40_9547</v>
+        <v>1_40_6421</v>
       </c>
       <c r="K41" s="4" t="str">
         <f t="shared" si="3"/>
@@ -54063,7 +54063,7 @@
       </c>
       <c r="J42" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1_0_8297</v>
+        <v>1_0_8911</v>
       </c>
       <c r="K42" s="4" t="str">
         <f t="shared" si="3"/>
@@ -54124,7 +54124,7 @@
       </c>
       <c r="J43" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2_1_9479</v>
+        <v>2_1_4953</v>
       </c>
       <c r="K43" s="4" t="str">
         <f t="shared" si="3"/>
@@ -54185,7 +54185,7 @@
       </c>
       <c r="J44" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2_2_2370</v>
+        <v>2_2_1161</v>
       </c>
       <c r="K44" s="4" t="str">
         <f t="shared" si="3"/>
@@ -54246,7 +54246,7 @@
       </c>
       <c r="J45" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2_3_413</v>
+        <v>2_3_7590</v>
       </c>
       <c r="K45" s="4" t="str">
         <f t="shared" si="3"/>
@@ -54307,7 +54307,7 @@
       </c>
       <c r="J46" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2_4_1183</v>
+        <v>2_4_7143</v>
       </c>
       <c r="K46" s="4" t="str">
         <f t="shared" si="3"/>
@@ -54368,7 +54368,7 @@
       </c>
       <c r="J47" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2_5_8067</v>
+        <v>2_5_4813</v>
       </c>
       <c r="K47" s="4" t="str">
         <f t="shared" si="3"/>
@@ -54429,7 +54429,7 @@
       </c>
       <c r="J48" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2_6_2564</v>
+        <v>2_6_7644</v>
       </c>
       <c r="K48" s="4" t="str">
         <f t="shared" si="3"/>
@@ -54490,7 +54490,7 @@
       </c>
       <c r="J49" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2_7_4150</v>
+        <v>2_7_6431</v>
       </c>
       <c r="K49" s="4" t="str">
         <f t="shared" si="3"/>
@@ -54551,7 +54551,7 @@
       </c>
       <c r="J50" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2_8_5952</v>
+        <v>2_8_3423</v>
       </c>
       <c r="K50" s="4" t="str">
         <f t="shared" si="3"/>
@@ -54612,7 +54612,7 @@
       </c>
       <c r="J51" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2_9_4271</v>
+        <v>2_9_4891</v>
       </c>
       <c r="K51" s="4" t="str">
         <f t="shared" si="3"/>
@@ -54673,7 +54673,7 @@
       </c>
       <c r="J52" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2_10_1468</v>
+        <v>2_10_3401</v>
       </c>
       <c r="K52" s="4" t="str">
         <f t="shared" si="3"/>
@@ -54734,7 +54734,7 @@
       </c>
       <c r="J53" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2_11_5878</v>
+        <v>2_11_1624</v>
       </c>
       <c r="K53" s="4" t="str">
         <f t="shared" si="3"/>
@@ -54795,7 +54795,7 @@
       </c>
       <c r="J54" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2_12_3698</v>
+        <v>2_12_7188</v>
       </c>
       <c r="K54" s="4" t="str">
         <f t="shared" si="3"/>
@@ -54856,7 +54856,7 @@
       </c>
       <c r="J55" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2_13_3333</v>
+        <v>2_13_7330</v>
       </c>
       <c r="K55" s="4" t="str">
         <f t="shared" si="3"/>
@@ -54917,7 +54917,7 @@
       </c>
       <c r="J56" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2_14_4683</v>
+        <v>2_14_6394</v>
       </c>
       <c r="K56" s="4" t="str">
         <f t="shared" si="3"/>
@@ -54978,7 +54978,7 @@
       </c>
       <c r="J57" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2_15_8018</v>
+        <v>2_15_5302</v>
       </c>
       <c r="K57" s="4" t="str">
         <f t="shared" si="3"/>
@@ -55039,7 +55039,7 @@
       </c>
       <c r="J58" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2_16_5100</v>
+        <v>2_16_7561</v>
       </c>
       <c r="K58" s="4" t="str">
         <f t="shared" si="3"/>
@@ -55100,7 +55100,7 @@
       </c>
       <c r="J59" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2_17_9462</v>
+        <v>2_17_8584</v>
       </c>
       <c r="K59" s="4" t="str">
         <f t="shared" si="3"/>
@@ -55161,7 +55161,7 @@
       </c>
       <c r="J60" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2_18_9747</v>
+        <v>2_18_3515</v>
       </c>
       <c r="K60" s="4" t="str">
         <f t="shared" si="3"/>
@@ -55222,7 +55222,7 @@
       </c>
       <c r="J61" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2_19_5664</v>
+        <v>2_19_9605</v>
       </c>
       <c r="K61" s="4" t="str">
         <f t="shared" si="3"/>
@@ -55283,7 +55283,7 @@
       </c>
       <c r="J62" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2_20_1608</v>
+        <v>2_20_2528</v>
       </c>
       <c r="K62" s="4" t="str">
         <f t="shared" si="3"/>
@@ -55344,7 +55344,7 @@
       </c>
       <c r="J63" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2_21_103</v>
+        <v>2_21_6627</v>
       </c>
       <c r="K63" s="4" t="str">
         <f t="shared" si="3"/>
@@ -55405,7 +55405,7 @@
       </c>
       <c r="J64" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2_22_5373</v>
+        <v>2_22_6734</v>
       </c>
       <c r="K64" s="4" t="str">
         <f t="shared" si="3"/>
@@ -55466,7 +55466,7 @@
       </c>
       <c r="J65" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2_23_8809</v>
+        <v>2_23_6937</v>
       </c>
       <c r="K65" s="4" t="str">
         <f t="shared" si="3"/>
@@ -55527,7 +55527,7 @@
       </c>
       <c r="J66" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2_24_9450</v>
+        <v>2_24_6615</v>
       </c>
       <c r="K66" s="4" t="str">
         <f t="shared" si="3"/>
@@ -55588,7 +55588,7 @@
       </c>
       <c r="J67" s="4" t="str">
         <f t="shared" ref="J67:J130" ca="1" si="14">MID(H67,8,1) &amp; "_" &amp; I67 &amp; "_" &amp; INT(RAND()*10000)</f>
-        <v>2_25_8878</v>
+        <v>2_25_4236</v>
       </c>
       <c r="K67" s="4" t="str">
         <f t="shared" ref="K67:K130" si="15">TRIM(MID(B67,LEN(I67)+2,10000))</f>
@@ -55649,7 +55649,7 @@
       </c>
       <c r="J68" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>2_26_4045</v>
+        <v>2_26_7494</v>
       </c>
       <c r="K68" s="4" t="str">
         <f t="shared" si="15"/>
@@ -55710,7 +55710,7 @@
       </c>
       <c r="J69" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>2_27_1945</v>
+        <v>2_27_4814</v>
       </c>
       <c r="K69" s="4" t="str">
         <f t="shared" si="15"/>
@@ -55771,7 +55771,7 @@
       </c>
       <c r="J70" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>2_28_4424</v>
+        <v>2_28_9666</v>
       </c>
       <c r="K70" s="4" t="str">
         <f t="shared" si="15"/>
@@ -55832,7 +55832,7 @@
       </c>
       <c r="J71" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>2_29_4420</v>
+        <v>2_29_5370</v>
       </c>
       <c r="K71" s="4" t="str">
         <f t="shared" si="15"/>
@@ -55893,7 +55893,7 @@
       </c>
       <c r="J72" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>2_30_777</v>
+        <v>2_30_4104</v>
       </c>
       <c r="K72" s="4" t="str">
         <f t="shared" si="15"/>
@@ -55954,7 +55954,7 @@
       </c>
       <c r="J73" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>2_31_2387</v>
+        <v>2_31_719</v>
       </c>
       <c r="K73" s="4" t="str">
         <f t="shared" si="15"/>
@@ -56015,7 +56015,7 @@
       </c>
       <c r="J74" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>2_32_5606</v>
+        <v>2_32_9112</v>
       </c>
       <c r="K74" s="4" t="str">
         <f t="shared" si="15"/>
@@ -56076,7 +56076,7 @@
       </c>
       <c r="J75" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>2_33_5922</v>
+        <v>2_33_170</v>
       </c>
       <c r="K75" s="4" t="str">
         <f t="shared" si="15"/>
@@ -56137,7 +56137,7 @@
       </c>
       <c r="J76" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>2_34_7139</v>
+        <v>2_34_1242</v>
       </c>
       <c r="K76" s="4" t="str">
         <f t="shared" si="15"/>
@@ -56198,7 +56198,7 @@
       </c>
       <c r="J77" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>2_35_3098</v>
+        <v>2_35_5490</v>
       </c>
       <c r="K77" s="4" t="str">
         <f t="shared" si="15"/>
@@ -56259,7 +56259,7 @@
       </c>
       <c r="J78" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>2_36_1625</v>
+        <v>2_36_8208</v>
       </c>
       <c r="K78" s="4" t="str">
         <f t="shared" si="15"/>
@@ -56320,7 +56320,7 @@
       </c>
       <c r="J79" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>2_37_3346</v>
+        <v>2_37_2516</v>
       </c>
       <c r="K79" s="4" t="str">
         <f t="shared" si="15"/>
@@ -56381,7 +56381,7 @@
       </c>
       <c r="J80" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>2_38_7658</v>
+        <v>2_38_4712</v>
       </c>
       <c r="K80" s="4" t="str">
         <f t="shared" si="15"/>
@@ -56442,7 +56442,7 @@
       </c>
       <c r="J81" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>2_39_6112</v>
+        <v>2_39_2164</v>
       </c>
       <c r="K81" s="4" t="str">
         <f t="shared" si="15"/>
@@ -56503,7 +56503,7 @@
       </c>
       <c r="J82" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>2_40_9318</v>
+        <v>2_40_4189</v>
       </c>
       <c r="K82" s="4" t="str">
         <f t="shared" si="15"/>
@@ -56564,7 +56564,7 @@
       </c>
       <c r="J83" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>2_0_9488</v>
+        <v>2_0_2084</v>
       </c>
       <c r="K83" s="4" t="str">
         <f t="shared" si="15"/>
@@ -56625,7 +56625,7 @@
       </c>
       <c r="J84" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_1_1654</v>
+        <v>3_1_9499</v>
       </c>
       <c r="K84" s="4" t="str">
         <f t="shared" si="15"/>
@@ -56686,7 +56686,7 @@
       </c>
       <c r="J85" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_2_8782</v>
+        <v>3_2_7278</v>
       </c>
       <c r="K85" s="4" t="str">
         <f t="shared" si="15"/>
@@ -56747,7 +56747,7 @@
       </c>
       <c r="J86" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_3_3921</v>
+        <v>3_3_1757</v>
       </c>
       <c r="K86" s="4" t="str">
         <f t="shared" si="15"/>
@@ -56808,7 +56808,7 @@
       </c>
       <c r="J87" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_4_9868</v>
+        <v>3_4_6391</v>
       </c>
       <c r="K87" s="4" t="str">
         <f t="shared" si="15"/>
@@ -56869,7 +56869,7 @@
       </c>
       <c r="J88" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_5_3236</v>
+        <v>3_5_7567</v>
       </c>
       <c r="K88" s="4" t="str">
         <f t="shared" si="15"/>
@@ -56930,7 +56930,7 @@
       </c>
       <c r="J89" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_6_2166</v>
+        <v>3_6_5328</v>
       </c>
       <c r="K89" s="4" t="str">
         <f t="shared" si="15"/>
@@ -56991,7 +56991,7 @@
       </c>
       <c r="J90" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_7_5825</v>
+        <v>3_7_5895</v>
       </c>
       <c r="K90" s="4" t="str">
         <f t="shared" si="15"/>
@@ -57052,7 +57052,7 @@
       </c>
       <c r="J91" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_8_8</v>
+        <v>3_8_5199</v>
       </c>
       <c r="K91" s="4" t="str">
         <f t="shared" si="15"/>
@@ -57113,7 +57113,7 @@
       </c>
       <c r="J92" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_9_1371</v>
+        <v>3_9_8858</v>
       </c>
       <c r="K92" s="4" t="str">
         <f t="shared" si="15"/>
@@ -57174,7 +57174,7 @@
       </c>
       <c r="J93" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_10_5525</v>
+        <v>3_10_1878</v>
       </c>
       <c r="K93" s="4" t="str">
         <f t="shared" si="15"/>
@@ -57235,7 +57235,7 @@
       </c>
       <c r="J94" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_11_536</v>
+        <v>3_11_9538</v>
       </c>
       <c r="K94" s="4" t="str">
         <f t="shared" si="15"/>
@@ -57296,7 +57296,7 @@
       </c>
       <c r="J95" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_12_9849</v>
+        <v>3_12_5222</v>
       </c>
       <c r="K95" s="4" t="str">
         <f t="shared" si="15"/>
@@ -57357,7 +57357,7 @@
       </c>
       <c r="J96" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_13_1485</v>
+        <v>3_13_4260</v>
       </c>
       <c r="K96" s="4" t="str">
         <f t="shared" si="15"/>
@@ -57418,7 +57418,7 @@
       </c>
       <c r="J97" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_14_5280</v>
+        <v>3_14_8542</v>
       </c>
       <c r="K97" s="4" t="str">
         <f t="shared" si="15"/>
@@ -57479,7 +57479,7 @@
       </c>
       <c r="J98" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_15_4560</v>
+        <v>3_15_256</v>
       </c>
       <c r="K98" s="4" t="str">
         <f t="shared" si="15"/>
@@ -57540,7 +57540,7 @@
       </c>
       <c r="J99" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_16_7071</v>
+        <v>3_16_2564</v>
       </c>
       <c r="K99" s="4" t="str">
         <f t="shared" si="15"/>
@@ -57601,7 +57601,7 @@
       </c>
       <c r="J100" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_17_3416</v>
+        <v>3_17_9197</v>
       </c>
       <c r="K100" s="4" t="str">
         <f t="shared" si="15"/>
@@ -57662,7 +57662,7 @@
       </c>
       <c r="J101" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_18_6042</v>
+        <v>3_18_5899</v>
       </c>
       <c r="K101" s="4" t="str">
         <f t="shared" si="15"/>
@@ -57723,7 +57723,7 @@
       </c>
       <c r="J102" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_19_8702</v>
+        <v>3_19_8687</v>
       </c>
       <c r="K102" s="4" t="str">
         <f t="shared" si="15"/>
@@ -57784,7 +57784,7 @@
       </c>
       <c r="J103" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_20_306</v>
+        <v>3_20_4718</v>
       </c>
       <c r="K103" s="4" t="str">
         <f t="shared" si="15"/>
@@ -57845,7 +57845,7 @@
       </c>
       <c r="J104" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_21_3575</v>
+        <v>3_21_7928</v>
       </c>
       <c r="K104" s="4" t="str">
         <f t="shared" si="15"/>
@@ -57906,7 +57906,7 @@
       </c>
       <c r="J105" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_22_6683</v>
+        <v>3_22_3809</v>
       </c>
       <c r="K105" s="4" t="str">
         <f t="shared" si="15"/>
@@ -57967,7 +57967,7 @@
       </c>
       <c r="J106" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_23_4827</v>
+        <v>3_23_6153</v>
       </c>
       <c r="K106" s="4" t="str">
         <f t="shared" si="15"/>
@@ -58028,7 +58028,7 @@
       </c>
       <c r="J107" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_24_2034</v>
+        <v>3_24_9618</v>
       </c>
       <c r="K107" s="4" t="str">
         <f t="shared" si="15"/>
@@ -58089,7 +58089,7 @@
       </c>
       <c r="J108" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_25_9393</v>
+        <v>3_25_1253</v>
       </c>
       <c r="K108" s="4" t="str">
         <f t="shared" si="15"/>
@@ -58150,7 +58150,7 @@
       </c>
       <c r="J109" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_26_9289</v>
+        <v>3_26_5219</v>
       </c>
       <c r="K109" s="4" t="str">
         <f t="shared" si="15"/>
@@ -58211,7 +58211,7 @@
       </c>
       <c r="J110" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_27_7429</v>
+        <v>3_27_8078</v>
       </c>
       <c r="K110" s="4" t="str">
         <f t="shared" si="15"/>
@@ -58272,7 +58272,7 @@
       </c>
       <c r="J111" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_28_5701</v>
+        <v>3_28_2499</v>
       </c>
       <c r="K111" s="4" t="str">
         <f t="shared" si="15"/>
@@ -58333,7 +58333,7 @@
       </c>
       <c r="J112" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_29_9173</v>
+        <v>3_29_661</v>
       </c>
       <c r="K112" s="4" t="str">
         <f t="shared" si="15"/>
@@ -58394,7 +58394,7 @@
       </c>
       <c r="J113" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_30_6259</v>
+        <v>3_30_4494</v>
       </c>
       <c r="K113" s="4" t="str">
         <f t="shared" si="15"/>
@@ -58455,7 +58455,7 @@
       </c>
       <c r="J114" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_31_9794</v>
+        <v>3_31_7357</v>
       </c>
       <c r="K114" s="4" t="str">
         <f t="shared" si="15"/>
@@ -58516,7 +58516,7 @@
       </c>
       <c r="J115" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_32_4402</v>
+        <v>3_32_1355</v>
       </c>
       <c r="K115" s="4" t="str">
         <f t="shared" si="15"/>
@@ -58577,7 +58577,7 @@
       </c>
       <c r="J116" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_33_8346</v>
+        <v>3_33_3372</v>
       </c>
       <c r="K116" s="4" t="str">
         <f t="shared" si="15"/>
@@ -58638,7 +58638,7 @@
       </c>
       <c r="J117" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_34_453</v>
+        <v>3_34_5370</v>
       </c>
       <c r="K117" s="4" t="str">
         <f t="shared" si="15"/>
@@ -58699,7 +58699,7 @@
       </c>
       <c r="J118" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_35_9324</v>
+        <v>3_35_9393</v>
       </c>
       <c r="K118" s="4" t="str">
         <f t="shared" si="15"/>
@@ -58760,7 +58760,7 @@
       </c>
       <c r="J119" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_36_9279</v>
+        <v>3_36_2440</v>
       </c>
       <c r="K119" s="4" t="str">
         <f t="shared" si="15"/>
@@ -58821,7 +58821,7 @@
       </c>
       <c r="J120" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_37_4468</v>
+        <v>3_37_1606</v>
       </c>
       <c r="K120" s="4" t="str">
         <f t="shared" si="15"/>
@@ -58882,7 +58882,7 @@
       </c>
       <c r="J121" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_38_1014</v>
+        <v>3_38_912</v>
       </c>
       <c r="K121" s="4" t="str">
         <f t="shared" si="15"/>
@@ -58943,7 +58943,7 @@
       </c>
       <c r="J122" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_39_6605</v>
+        <v>3_39_954</v>
       </c>
       <c r="K122" s="4" t="str">
         <f t="shared" si="15"/>
@@ -59004,7 +59004,7 @@
       </c>
       <c r="J123" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_40_3934</v>
+        <v>3_40_9259</v>
       </c>
       <c r="K123" s="4" t="str">
         <f t="shared" si="15"/>
@@ -59065,7 +59065,7 @@
       </c>
       <c r="J124" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>3_0_4068</v>
+        <v>3_0_5055</v>
       </c>
       <c r="K124" s="4" t="str">
         <f t="shared" si="15"/>
@@ -59126,7 +59126,7 @@
       </c>
       <c r="J125" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>4_1_1888</v>
+        <v>4_1_861</v>
       </c>
       <c r="K125" s="4" t="str">
         <f t="shared" si="15"/>
@@ -59187,7 +59187,7 @@
       </c>
       <c r="J126" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>4_2_7238</v>
+        <v>4_2_6748</v>
       </c>
       <c r="K126" s="4" t="str">
         <f t="shared" si="15"/>
@@ -59248,7 +59248,7 @@
       </c>
       <c r="J127" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>4_3_7586</v>
+        <v>4_3_8634</v>
       </c>
       <c r="K127" s="4" t="str">
         <f t="shared" si="15"/>
@@ -59309,7 +59309,7 @@
       </c>
       <c r="J128" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>4_4_9321</v>
+        <v>4_4_4575</v>
       </c>
       <c r="K128" s="4" t="str">
         <f t="shared" si="15"/>
@@ -59370,7 +59370,7 @@
       </c>
       <c r="J129" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>4_5_1714</v>
+        <v>4_5_7930</v>
       </c>
       <c r="K129" s="4" t="str">
         <f t="shared" si="15"/>
@@ -59431,7 +59431,7 @@
       </c>
       <c r="J130" s="4" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>4_6_6460</v>
+        <v>4_6_5247</v>
       </c>
       <c r="K130" s="4" t="str">
         <f t="shared" si="15"/>
@@ -59492,7 +59492,7 @@
       </c>
       <c r="J131" s="4" t="str">
         <f t="shared" ref="J131:J194" ca="1" si="22">MID(H131,8,1) &amp; "_" &amp; I131 &amp; "_" &amp; INT(RAND()*10000)</f>
-        <v>4_7_7062</v>
+        <v>4_7_1163</v>
       </c>
       <c r="K131" s="4" t="str">
         <f t="shared" ref="K131:K194" si="23">TRIM(MID(B131,LEN(I131)+2,10000))</f>
@@ -59553,7 +59553,7 @@
       </c>
       <c r="J132" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>4_8_1748</v>
+        <v>4_8_8591</v>
       </c>
       <c r="K132" s="4" t="str">
         <f t="shared" si="23"/>
@@ -59614,7 +59614,7 @@
       </c>
       <c r="J133" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>4_9_9994</v>
+        <v>4_9_2471</v>
       </c>
       <c r="K133" s="4" t="str">
         <f t="shared" si="23"/>
@@ -59675,7 +59675,7 @@
       </c>
       <c r="J134" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>4_10_3287</v>
+        <v>4_10_5729</v>
       </c>
       <c r="K134" s="4" t="str">
         <f t="shared" si="23"/>
@@ -59736,7 +59736,7 @@
       </c>
       <c r="J135" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>4_11_4615</v>
+        <v>4_11_3947</v>
       </c>
       <c r="K135" s="4" t="str">
         <f t="shared" si="23"/>
@@ -59797,7 +59797,7 @@
       </c>
       <c r="J136" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>4_12_8657</v>
+        <v>4_12_6450</v>
       </c>
       <c r="K136" s="4" t="str">
         <f t="shared" si="23"/>
@@ -59858,7 +59858,7 @@
       </c>
       <c r="J137" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>4_13_2148</v>
+        <v>4_13_3773</v>
       </c>
       <c r="K137" s="4" t="str">
         <f t="shared" si="23"/>
@@ -59919,7 +59919,7 @@
       </c>
       <c r="J138" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>4_14_466</v>
+        <v>4_14_4229</v>
       </c>
       <c r="K138" s="4" t="str">
         <f t="shared" si="23"/>
@@ -59980,7 +59980,7 @@
       </c>
       <c r="J139" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>4_15_4089</v>
+        <v>4_15_7166</v>
       </c>
       <c r="K139" s="4" t="str">
         <f t="shared" si="23"/>
@@ -60041,7 +60041,7 @@
       </c>
       <c r="J140" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>4_16_9901</v>
+        <v>4_16_4809</v>
       </c>
       <c r="K140" s="4" t="str">
         <f t="shared" si="23"/>
@@ -60102,7 +60102,7 @@
       </c>
       <c r="J141" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>4_17_8540</v>
+        <v>4_17_5640</v>
       </c>
       <c r="K141" s="4" t="str">
         <f t="shared" si="23"/>
@@ -60163,7 +60163,7 @@
       </c>
       <c r="J142" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>4_18_7208</v>
+        <v>4_18_944</v>
       </c>
       <c r="K142" s="4" t="str">
         <f t="shared" si="23"/>
@@ -60224,7 +60224,7 @@
       </c>
       <c r="J143" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>4_19_2701</v>
+        <v>4_19_7244</v>
       </c>
       <c r="K143" s="4" t="str">
         <f t="shared" si="23"/>
@@ -60285,7 +60285,7 @@
       </c>
       <c r="J144" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>4_20_8901</v>
+        <v>4_20_3301</v>
       </c>
       <c r="K144" s="4" t="str">
         <f t="shared" si="23"/>
@@ -60346,7 +60346,7 @@
       </c>
       <c r="J145" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>4_21_5522</v>
+        <v>4_21_206</v>
       </c>
       <c r="K145" s="4" t="str">
         <f t="shared" si="23"/>
@@ -60407,7 +60407,7 @@
       </c>
       <c r="J146" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>4_22_9800</v>
+        <v>4_22_16</v>
       </c>
       <c r="K146" s="4" t="str">
         <f t="shared" si="23"/>
@@ -60468,7 +60468,7 @@
       </c>
       <c r="J147" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>4_23_9152</v>
+        <v>4_23_4928</v>
       </c>
       <c r="K147" s="4" t="str">
         <f t="shared" si="23"/>
@@ -60529,7 +60529,7 @@
       </c>
       <c r="J148" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>4_24_2754</v>
+        <v>4_24_76</v>
       </c>
       <c r="K148" s="4" t="str">
         <f t="shared" si="23"/>
@@ -60590,7 +60590,7 @@
       </c>
       <c r="J149" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>4_25_3968</v>
+        <v>4_25_5992</v>
       </c>
       <c r="K149" s="4" t="str">
         <f t="shared" si="23"/>
@@ -60651,7 +60651,7 @@
       </c>
       <c r="J150" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>4_26_9374</v>
+        <v>4_26_3231</v>
       </c>
       <c r="K150" s="4" t="str">
         <f t="shared" si="23"/>
@@ -60712,7 +60712,7 @@
       </c>
       <c r="J151" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>4_27_9133</v>
+        <v>4_27_7435</v>
       </c>
       <c r="K151" s="4" t="str">
         <f t="shared" si="23"/>
@@ -60773,7 +60773,7 @@
       </c>
       <c r="J152" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>4_28_9736</v>
+        <v>4_28_1753</v>
       </c>
       <c r="K152" s="4" t="str">
         <f t="shared" si="23"/>
@@ -60834,7 +60834,7 @@
       </c>
       <c r="J153" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>4_29_965</v>
+        <v>4_29_9967</v>
       </c>
       <c r="K153" s="4" t="str">
         <f t="shared" si="23"/>
@@ -60895,7 +60895,7 @@
       </c>
       <c r="J154" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>4_30_9548</v>
+        <v>4_30_1533</v>
       </c>
       <c r="K154" s="4" t="str">
         <f t="shared" si="23"/>
@@ -60956,7 +60956,7 @@
       </c>
       <c r="J155" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>4_31_7279</v>
+        <v>4_31_6133</v>
       </c>
       <c r="K155" s="4" t="str">
         <f t="shared" si="23"/>
@@ -61017,7 +61017,7 @@
       </c>
       <c r="J156" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>4_32_4146</v>
+        <v>4_32_9124</v>
       </c>
       <c r="K156" s="4" t="str">
         <f t="shared" si="23"/>
@@ -61078,7 +61078,7 @@
       </c>
       <c r="J157" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>4_33_3153</v>
+        <v>4_33_9239</v>
       </c>
       <c r="K157" s="4" t="str">
         <f t="shared" si="23"/>
@@ -61139,7 +61139,7 @@
       </c>
       <c r="J158" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>4_34_2457</v>
+        <v>4_34_1461</v>
       </c>
       <c r="K158" s="4" t="str">
         <f t="shared" si="23"/>
@@ -61200,7 +61200,7 @@
       </c>
       <c r="J159" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>4_35_6138</v>
+        <v>4_35_6488</v>
       </c>
       <c r="K159" s="4" t="str">
         <f t="shared" si="23"/>
@@ -61261,7 +61261,7 @@
       </c>
       <c r="J160" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>4_36_7123</v>
+        <v>4_36_7949</v>
       </c>
       <c r="K160" s="4" t="str">
         <f t="shared" si="23"/>
@@ -61322,7 +61322,7 @@
       </c>
       <c r="J161" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>4_37_6256</v>
+        <v>4_37_2549</v>
       </c>
       <c r="K161" s="4" t="str">
         <f t="shared" si="23"/>
@@ -61383,7 +61383,7 @@
       </c>
       <c r="J162" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>4_38_7687</v>
+        <v>4_38_6019</v>
       </c>
       <c r="K162" s="4" t="str">
         <f t="shared" si="23"/>
@@ -61444,7 +61444,7 @@
       </c>
       <c r="J163" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>4_39_9088</v>
+        <v>4_39_6997</v>
       </c>
       <c r="K163" s="4" t="str">
         <f t="shared" si="23"/>
@@ -61505,7 +61505,7 @@
       </c>
       <c r="J164" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>4_40_2855</v>
+        <v>4_40_3763</v>
       </c>
       <c r="K164" s="4" t="str">
         <f t="shared" si="23"/>
@@ -61566,7 +61566,7 @@
       </c>
       <c r="J165" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>4_0_7366</v>
+        <v>4_0_3462</v>
       </c>
       <c r="K165" s="4" t="str">
         <f t="shared" si="23"/>
@@ -61627,7 +61627,7 @@
       </c>
       <c r="J166" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>5_1_3576</v>
+        <v>5_1_9804</v>
       </c>
       <c r="K166" s="4" t="str">
         <f t="shared" si="23"/>
@@ -61688,7 +61688,7 @@
       </c>
       <c r="J167" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>5_2_9697</v>
+        <v>5_2_8708</v>
       </c>
       <c r="K167" s="4" t="str">
         <f t="shared" si="23"/>
@@ -61749,7 +61749,7 @@
       </c>
       <c r="J168" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>5_3_6849</v>
+        <v>5_3_8987</v>
       </c>
       <c r="K168" s="4" t="str">
         <f t="shared" si="23"/>
@@ -61810,7 +61810,7 @@
       </c>
       <c r="J169" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>5_4_1505</v>
+        <v>5_4_360</v>
       </c>
       <c r="K169" s="4" t="str">
         <f t="shared" si="23"/>
@@ -61871,7 +61871,7 @@
       </c>
       <c r="J170" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>5_5_5705</v>
+        <v>5_5_4500</v>
       </c>
       <c r="K170" s="4" t="str">
         <f t="shared" si="23"/>
@@ -61932,7 +61932,7 @@
       </c>
       <c r="J171" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>5_6_722</v>
+        <v>5_6_1300</v>
       </c>
       <c r="K171" s="4" t="str">
         <f t="shared" si="23"/>
@@ -61993,7 +61993,7 @@
       </c>
       <c r="J172" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>5_7_4933</v>
+        <v>5_7_7516</v>
       </c>
       <c r="K172" s="4" t="str">
         <f t="shared" si="23"/>
@@ -62054,7 +62054,7 @@
       </c>
       <c r="J173" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>5_8_185</v>
+        <v>5_8_9858</v>
       </c>
       <c r="K173" s="4" t="str">
         <f t="shared" si="23"/>
@@ -62115,7 +62115,7 @@
       </c>
       <c r="J174" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>5_9_3278</v>
+        <v>5_9_4329</v>
       </c>
       <c r="K174" s="4" t="str">
         <f t="shared" si="23"/>
@@ -62176,7 +62176,7 @@
       </c>
       <c r="J175" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>5_10_9419</v>
+        <v>5_10_3310</v>
       </c>
       <c r="K175" s="4" t="str">
         <f t="shared" si="23"/>
@@ -62237,7 +62237,7 @@
       </c>
       <c r="J176" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>5_11_7852</v>
+        <v>5_11_9347</v>
       </c>
       <c r="K176" s="4" t="str">
         <f t="shared" si="23"/>
@@ -62298,7 +62298,7 @@
       </c>
       <c r="J177" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>5_12_6972</v>
+        <v>5_12_9177</v>
       </c>
       <c r="K177" s="4" t="str">
         <f t="shared" si="23"/>
@@ -62359,7 +62359,7 @@
       </c>
       <c r="J178" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>5_13_6774</v>
+        <v>5_13_5168</v>
       </c>
       <c r="K178" s="4" t="str">
         <f t="shared" si="23"/>
@@ -62420,7 +62420,7 @@
       </c>
       <c r="J179" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>5_14_781</v>
+        <v>5_14_6883</v>
       </c>
       <c r="K179" s="4" t="str">
         <f t="shared" si="23"/>
@@ -62481,7 +62481,7 @@
       </c>
       <c r="J180" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>5_15_9728</v>
+        <v>5_15_8685</v>
       </c>
       <c r="K180" s="4" t="str">
         <f t="shared" si="23"/>
@@ -62542,7 +62542,7 @@
       </c>
       <c r="J181" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>5_16_9844</v>
+        <v>5_16_6311</v>
       </c>
       <c r="K181" s="4" t="str">
         <f t="shared" si="23"/>
@@ -62603,7 +62603,7 @@
       </c>
       <c r="J182" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>5_17_6075</v>
+        <v>5_17_9266</v>
       </c>
       <c r="K182" s="4" t="str">
         <f t="shared" si="23"/>
@@ -62664,7 +62664,7 @@
       </c>
       <c r="J183" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>5_18_5957</v>
+        <v>5_18_6102</v>
       </c>
       <c r="K183" s="4" t="str">
         <f t="shared" si="23"/>
@@ -62725,7 +62725,7 @@
       </c>
       <c r="J184" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>5_19_1560</v>
+        <v>5_19_7199</v>
       </c>
       <c r="K184" s="4" t="str">
         <f t="shared" si="23"/>
@@ -62786,7 +62786,7 @@
       </c>
       <c r="J185" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>5_20_2524</v>
+        <v>5_20_3801</v>
       </c>
       <c r="K185" s="4" t="str">
         <f t="shared" si="23"/>
@@ -62847,7 +62847,7 @@
       </c>
       <c r="J186" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>5_21_3885</v>
+        <v>5_21_4969</v>
       </c>
       <c r="K186" s="4" t="str">
         <f t="shared" si="23"/>
@@ -62908,7 +62908,7 @@
       </c>
       <c r="J187" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>5_22_4717</v>
+        <v>5_22_9981</v>
       </c>
       <c r="K187" s="4" t="str">
         <f t="shared" si="23"/>
@@ -62969,7 +62969,7 @@
       </c>
       <c r="J188" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>5_23_5285</v>
+        <v>5_23_7789</v>
       </c>
       <c r="K188" s="4" t="str">
         <f t="shared" si="23"/>
@@ -63030,7 +63030,7 @@
       </c>
       <c r="J189" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>5_24_2733</v>
+        <v>5_24_1250</v>
       </c>
       <c r="K189" s="4" t="str">
         <f t="shared" si="23"/>
@@ -63091,7 +63091,7 @@
       </c>
       <c r="J190" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>5_25_6146</v>
+        <v>5_25_8235</v>
       </c>
       <c r="K190" s="4" t="str">
         <f t="shared" si="23"/>
@@ -63152,7 +63152,7 @@
       </c>
       <c r="J191" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>5_26_8005</v>
+        <v>5_26_6987</v>
       </c>
       <c r="K191" s="4" t="str">
         <f t="shared" si="23"/>
@@ -63213,7 +63213,7 @@
       </c>
       <c r="J192" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>5_27_783</v>
+        <v>5_27_6011</v>
       </c>
       <c r="K192" s="4" t="str">
         <f t="shared" si="23"/>
@@ -63274,7 +63274,7 @@
       </c>
       <c r="J193" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>5_28_4409</v>
+        <v>5_28_7793</v>
       </c>
       <c r="K193" s="4" t="str">
         <f t="shared" si="23"/>
@@ -63335,7 +63335,7 @@
       </c>
       <c r="J194" s="4" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>5_29_9034</v>
+        <v>5_29_8245</v>
       </c>
       <c r="K194" s="4" t="str">
         <f t="shared" si="23"/>
@@ -63396,7 +63396,7 @@
       </c>
       <c r="J195" s="4" t="str">
         <f t="shared" ref="J195:J206" ca="1" si="30">MID(H195,8,1) &amp; "_" &amp; I195 &amp; "_" &amp; INT(RAND()*10000)</f>
-        <v>5_30_8925</v>
+        <v>5_30_8584</v>
       </c>
       <c r="K195" s="4" t="str">
         <f t="shared" ref="K195:K206" si="31">TRIM(MID(B195,LEN(I195)+2,10000))</f>
@@ -63457,7 +63457,7 @@
       </c>
       <c r="J196" s="4" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>5_31_7810</v>
+        <v>5_31_2139</v>
       </c>
       <c r="K196" s="4" t="str">
         <f t="shared" si="31"/>
@@ -63518,7 +63518,7 @@
       </c>
       <c r="J197" s="4" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>5_32_2393</v>
+        <v>5_32_559</v>
       </c>
       <c r="K197" s="4" t="str">
         <f t="shared" si="31"/>
@@ -63579,7 +63579,7 @@
       </c>
       <c r="J198" s="4" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>5_33_4140</v>
+        <v>5_33_4704</v>
       </c>
       <c r="K198" s="4" t="str">
         <f t="shared" si="31"/>
@@ -63640,7 +63640,7 @@
       </c>
       <c r="J199" s="4" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>5_34_5943</v>
+        <v>5_34_4788</v>
       </c>
       <c r="K199" s="4" t="str">
         <f t="shared" si="31"/>
@@ -63701,7 +63701,7 @@
       </c>
       <c r="J200" s="4" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>5_35_6538</v>
+        <v>5_35_7039</v>
       </c>
       <c r="K200" s="4" t="str">
         <f t="shared" si="31"/>
@@ -63762,7 +63762,7 @@
       </c>
       <c r="J201" s="4" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>5_36_5422</v>
+        <v>5_36_9360</v>
       </c>
       <c r="K201" s="4" t="str">
         <f t="shared" si="31"/>
@@ -63823,7 +63823,7 @@
       </c>
       <c r="J202" s="4" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>5_37_2212</v>
+        <v>5_37_1668</v>
       </c>
       <c r="K202" s="4" t="str">
         <f t="shared" si="31"/>
@@ -63884,7 +63884,7 @@
       </c>
       <c r="J203" s="4" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>5_38_4481</v>
+        <v>5_38_523</v>
       </c>
       <c r="K203" s="4" t="str">
         <f t="shared" si="31"/>
@@ -63945,7 +63945,7 @@
       </c>
       <c r="J204" s="4" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>5_39_8312</v>
+        <v>5_39_1507</v>
       </c>
       <c r="K204" s="4" t="str">
         <f t="shared" si="31"/>
@@ -64006,7 +64006,7 @@
       </c>
       <c r="J205" s="4" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>5_40_7617</v>
+        <v>5_40_5229</v>
       </c>
       <c r="K205" s="4" t="str">
         <f t="shared" si="31"/>
@@ -64067,7 +64067,7 @@
       </c>
       <c r="J206" s="4" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>5_0_551</v>
+        <v>5_0_5175</v>
       </c>
       <c r="K206" s="4" t="str">
         <f t="shared" si="31"/>
@@ -64391,7 +64391,7 @@
   <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A193" sqref="A193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -64453,7 +64453,7 @@
       </c>
       <c r="C2" s="2" t="str">
         <f ca="1"/>
-        <v>1_1_4043</v>
+        <v>1_1_5951</v>
       </c>
       <c r="D2" s="2" t="str">
         <f ca="1"/>
@@ -64490,7 +64490,7 @@
       </c>
       <c r="C3" s="2" t="str">
         <f ca="1"/>
-        <v>1_2_540</v>
+        <v>1_2_1337</v>
       </c>
       <c r="D3" s="2" t="str">
         <f ca="1"/>
@@ -64527,7 +64527,7 @@
       </c>
       <c r="C4" s="2" t="str">
         <f ca="1"/>
-        <v>1_3_7334</v>
+        <v>1_3_6799</v>
       </c>
       <c r="D4" s="2" t="str">
         <f ca="1"/>
@@ -64564,7 +64564,7 @@
       </c>
       <c r="C5" s="2" t="str">
         <f ca="1"/>
-        <v>1_4_9990</v>
+        <v>1_4_654</v>
       </c>
       <c r="D5" s="2" t="str">
         <f ca="1"/>
@@ -64601,7 +64601,7 @@
       </c>
       <c r="C6" s="2" t="str">
         <f ca="1"/>
-        <v>1_5_1093</v>
+        <v>1_5_3343</v>
       </c>
       <c r="D6" s="2" t="str">
         <f ca="1"/>
@@ -64638,7 +64638,7 @@
       </c>
       <c r="C7" s="2" t="str">
         <f ca="1"/>
-        <v>1_6_295</v>
+        <v>1_6_3873</v>
       </c>
       <c r="D7" s="2" t="str">
         <f ca="1"/>
@@ -64675,7 +64675,7 @@
       </c>
       <c r="C8" s="2" t="str">
         <f ca="1"/>
-        <v>1_7_8929</v>
+        <v>1_7_4398</v>
       </c>
       <c r="D8" s="2" t="str">
         <f ca="1"/>
@@ -64712,7 +64712,7 @@
       </c>
       <c r="C9" s="2" t="str">
         <f ca="1"/>
-        <v>1_8_2501</v>
+        <v>1_8_7448</v>
       </c>
       <c r="D9" s="2" t="str">
         <f ca="1"/>
@@ -64749,7 +64749,7 @@
       </c>
       <c r="C10" s="2" t="str">
         <f ca="1"/>
-        <v>1_9_3510</v>
+        <v>1_9_1740</v>
       </c>
       <c r="D10" s="2" t="str">
         <f ca="1"/>
@@ -64786,7 +64786,7 @@
       </c>
       <c r="C11" s="2" t="str">
         <f ca="1"/>
-        <v>1_10_1874</v>
+        <v>1_10_1233</v>
       </c>
       <c r="D11" s="2" t="str">
         <f ca="1"/>
@@ -64823,7 +64823,7 @@
       </c>
       <c r="C12" s="2" t="str">
         <f ca="1"/>
-        <v>1_11_8726</v>
+        <v>1_11_3988</v>
       </c>
       <c r="D12" s="2" t="str">
         <f ca="1"/>
@@ -64860,7 +64860,7 @@
       </c>
       <c r="C13" s="2" t="str">
         <f ca="1"/>
-        <v>1_12_3720</v>
+        <v>1_12_3238</v>
       </c>
       <c r="D13" s="2" t="str">
         <f ca="1"/>
@@ -64897,7 +64897,7 @@
       </c>
       <c r="C14" s="2" t="str">
         <f ca="1"/>
-        <v>1_13_6962</v>
+        <v>1_13_58</v>
       </c>
       <c r="D14" s="2" t="str">
         <f ca="1"/>
@@ -64934,7 +64934,7 @@
       </c>
       <c r="C15" s="2" t="str">
         <f ca="1"/>
-        <v>1_14_3137</v>
+        <v>1_14_9089</v>
       </c>
       <c r="D15" s="2" t="str">
         <f ca="1"/>
@@ -64971,7 +64971,7 @@
       </c>
       <c r="C16" s="2" t="str">
         <f ca="1"/>
-        <v>1_15_7579</v>
+        <v>1_15_7683</v>
       </c>
       <c r="D16" s="2" t="str">
         <f ca="1"/>
@@ -65008,7 +65008,7 @@
       </c>
       <c r="C17" s="2" t="str">
         <f ca="1"/>
-        <v>1_16_6448</v>
+        <v>1_16_6634</v>
       </c>
       <c r="D17" s="2" t="str">
         <f ca="1"/>
@@ -65045,7 +65045,7 @@
       </c>
       <c r="C18" s="2" t="str">
         <f ca="1"/>
-        <v>1_17_6800</v>
+        <v>1_17_6462</v>
       </c>
       <c r="D18" s="2" t="str">
         <f ca="1"/>
@@ -65082,7 +65082,7 @@
       </c>
       <c r="C19" s="2" t="str">
         <f ca="1"/>
-        <v>1_18_2889</v>
+        <v>1_18_6098</v>
       </c>
       <c r="D19" s="2" t="str">
         <f ca="1"/>
@@ -65119,7 +65119,7 @@
       </c>
       <c r="C20" s="2" t="str">
         <f ca="1"/>
-        <v>1_19_1153</v>
+        <v>1_19_471</v>
       </c>
       <c r="D20" s="2" t="str">
         <f ca="1"/>
@@ -65156,7 +65156,7 @@
       </c>
       <c r="C21" s="2" t="str">
         <f ca="1"/>
-        <v>1_20_8599</v>
+        <v>1_20_2181</v>
       </c>
       <c r="D21" s="2" t="str">
         <f ca="1"/>
@@ -65193,7 +65193,7 @@
       </c>
       <c r="C22" s="2" t="str">
         <f ca="1"/>
-        <v>1_21_7770</v>
+        <v>1_21_4059</v>
       </c>
       <c r="D22" s="2" t="str">
         <f ca="1"/>
@@ -65230,7 +65230,7 @@
       </c>
       <c r="C23" s="2" t="str">
         <f ca="1"/>
-        <v>1_22_7428</v>
+        <v>1_22_3451</v>
       </c>
       <c r="D23" s="2" t="str">
         <f ca="1"/>
@@ -65267,7 +65267,7 @@
       </c>
       <c r="C24" s="2" t="str">
         <f ca="1"/>
-        <v>1_23_6729</v>
+        <v>1_23_1010</v>
       </c>
       <c r="D24" s="2" t="str">
         <f ca="1"/>
@@ -65304,7 +65304,7 @@
       </c>
       <c r="C25" s="2" t="str">
         <f ca="1"/>
-        <v>1_24_7846</v>
+        <v>1_24_8047</v>
       </c>
       <c r="D25" s="2" t="str">
         <f ca="1"/>
@@ -65341,7 +65341,7 @@
       </c>
       <c r="C26" s="2" t="str">
         <f ca="1"/>
-        <v>1_25_6184</v>
+        <v>1_25_2247</v>
       </c>
       <c r="D26" s="2" t="str">
         <f ca="1"/>
@@ -65378,7 +65378,7 @@
       </c>
       <c r="C27" s="2" t="str">
         <f ca="1"/>
-        <v>1_26_9483</v>
+        <v>1_26_1660</v>
       </c>
       <c r="D27" s="2" t="str">
         <f ca="1"/>
@@ -65415,7 +65415,7 @@
       </c>
       <c r="C28" s="2" t="str">
         <f ca="1"/>
-        <v>1_27_8594</v>
+        <v>1_27_7439</v>
       </c>
       <c r="D28" s="2" t="str">
         <f ca="1"/>
@@ -65452,7 +65452,7 @@
       </c>
       <c r="C29" s="2" t="str">
         <f ca="1"/>
-        <v>1_28_7233</v>
+        <v>1_28_4881</v>
       </c>
       <c r="D29" s="2" t="str">
         <f ca="1"/>
@@ -65489,7 +65489,7 @@
       </c>
       <c r="C30" s="2" t="str">
         <f ca="1"/>
-        <v>1_29_3941</v>
+        <v>1_29_4360</v>
       </c>
       <c r="D30" s="2" t="str">
         <f ca="1"/>
@@ -65526,7 +65526,7 @@
       </c>
       <c r="C31" s="2" t="str">
         <f ca="1"/>
-        <v>1_30_9671</v>
+        <v>1_30_3372</v>
       </c>
       <c r="D31" s="2" t="str">
         <f ca="1"/>
@@ -65563,7 +65563,7 @@
       </c>
       <c r="C32" s="2" t="str">
         <f ca="1"/>
-        <v>1_31_4053</v>
+        <v>1_31_983</v>
       </c>
       <c r="D32" s="2" t="str">
         <f ca="1"/>
@@ -65600,7 +65600,7 @@
       </c>
       <c r="C33" s="2" t="str">
         <f ca="1"/>
-        <v>1_32_1679</v>
+        <v>1_32_293</v>
       </c>
       <c r="D33" s="2" t="str">
         <f ca="1"/>
@@ -65637,7 +65637,7 @@
       </c>
       <c r="C34" s="2" t="str">
         <f ca="1"/>
-        <v>1_33_2585</v>
+        <v>1_33_8848</v>
       </c>
       <c r="D34" s="2" t="str">
         <f ca="1"/>
@@ -65674,7 +65674,7 @@
       </c>
       <c r="C35" s="2" t="str">
         <f ca="1"/>
-        <v>1_34_1281</v>
+        <v>1_34_8886</v>
       </c>
       <c r="D35" s="2" t="str">
         <f ca="1"/>
@@ -65711,7 +65711,7 @@
       </c>
       <c r="C36" s="2" t="str">
         <f ca="1"/>
-        <v>1_35_7126</v>
+        <v>1_35_9666</v>
       </c>
       <c r="D36" s="2" t="str">
         <f ca="1"/>
@@ -65748,7 +65748,7 @@
       </c>
       <c r="C37" s="2" t="str">
         <f ca="1"/>
-        <v>1_36_8069</v>
+        <v>1_36_8884</v>
       </c>
       <c r="D37" s="2" t="str">
         <f ca="1"/>
@@ -65785,7 +65785,7 @@
       </c>
       <c r="C38" s="2" t="str">
         <f ca="1"/>
-        <v>1_37_816</v>
+        <v>1_37_6157</v>
       </c>
       <c r="D38" s="2" t="str">
         <f ca="1"/>
@@ -65822,7 +65822,7 @@
       </c>
       <c r="C39" s="2" t="str">
         <f ca="1"/>
-        <v>1_38_4371</v>
+        <v>1_38_3824</v>
       </c>
       <c r="D39" s="2" t="str">
         <f ca="1"/>
@@ -65859,7 +65859,7 @@
       </c>
       <c r="C40" s="2" t="str">
         <f ca="1"/>
-        <v>1_39_1586</v>
+        <v>1_39_7294</v>
       </c>
       <c r="D40" s="2" t="str">
         <f ca="1"/>
@@ -65896,7 +65896,7 @@
       </c>
       <c r="C41" s="2" t="str">
         <f ca="1"/>
-        <v>1_40_9547</v>
+        <v>1_40_6421</v>
       </c>
       <c r="D41" s="2" t="str">
         <f ca="1"/>
@@ -65933,7 +65933,7 @@
       </c>
       <c r="C42" s="2" t="str">
         <f ca="1"/>
-        <v>2_1_9479</v>
+        <v>2_1_4953</v>
       </c>
       <c r="D42" s="2" t="str">
         <f ca="1"/>
@@ -65970,7 +65970,7 @@
       </c>
       <c r="C43" s="2" t="str">
         <f ca="1"/>
-        <v>2_2_2370</v>
+        <v>2_2_1161</v>
       </c>
       <c r="D43" s="2" t="str">
         <f ca="1"/>
@@ -66007,7 +66007,7 @@
       </c>
       <c r="C44" s="2" t="str">
         <f ca="1"/>
-        <v>2_3_413</v>
+        <v>2_3_7590</v>
       </c>
       <c r="D44" s="2" t="str">
         <f ca="1"/>
@@ -66044,7 +66044,7 @@
       </c>
       <c r="C45" s="2" t="str">
         <f ca="1"/>
-        <v>2_4_1183</v>
+        <v>2_4_7143</v>
       </c>
       <c r="D45" s="2" t="str">
         <f ca="1"/>
@@ -66081,7 +66081,7 @@
       </c>
       <c r="C46" s="2" t="str">
         <f ca="1"/>
-        <v>2_5_8067</v>
+        <v>2_5_4813</v>
       </c>
       <c r="D46" s="2" t="str">
         <f ca="1"/>
@@ -66118,7 +66118,7 @@
       </c>
       <c r="C47" s="2" t="str">
         <f ca="1"/>
-        <v>2_6_2564</v>
+        <v>2_6_7644</v>
       </c>
       <c r="D47" s="2" t="str">
         <f ca="1"/>
@@ -66155,7 +66155,7 @@
       </c>
       <c r="C48" s="2" t="str">
         <f ca="1"/>
-        <v>2_7_4150</v>
+        <v>2_7_6431</v>
       </c>
       <c r="D48" s="2" t="str">
         <f ca="1"/>
@@ -66192,7 +66192,7 @@
       </c>
       <c r="C49" s="2" t="str">
         <f ca="1"/>
-        <v>2_8_5952</v>
+        <v>2_8_3423</v>
       </c>
       <c r="D49" s="2" t="str">
         <f ca="1"/>
@@ -66229,7 +66229,7 @@
       </c>
       <c r="C50" s="2" t="str">
         <f ca="1"/>
-        <v>2_9_4271</v>
+        <v>2_9_4891</v>
       </c>
       <c r="D50" s="2" t="str">
         <f ca="1"/>
@@ -66266,7 +66266,7 @@
       </c>
       <c r="C51" s="2" t="str">
         <f ca="1"/>
-        <v>2_10_1468</v>
+        <v>2_10_3401</v>
       </c>
       <c r="D51" s="2" t="str">
         <f ca="1"/>
@@ -66303,7 +66303,7 @@
       </c>
       <c r="C52" s="2" t="str">
         <f ca="1"/>
-        <v>2_11_5878</v>
+        <v>2_11_1624</v>
       </c>
       <c r="D52" s="2" t="str">
         <f ca="1"/>
@@ -66340,7 +66340,7 @@
       </c>
       <c r="C53" s="2" t="str">
         <f ca="1"/>
-        <v>2_12_3698</v>
+        <v>2_12_7188</v>
       </c>
       <c r="D53" s="2" t="str">
         <f ca="1"/>
@@ -66377,7 +66377,7 @@
       </c>
       <c r="C54" s="2" t="str">
         <f ca="1"/>
-        <v>2_13_3333</v>
+        <v>2_13_7330</v>
       </c>
       <c r="D54" s="2" t="str">
         <f ca="1"/>
@@ -66414,7 +66414,7 @@
       </c>
       <c r="C55" s="2" t="str">
         <f ca="1"/>
-        <v>2_14_4683</v>
+        <v>2_14_6394</v>
       </c>
       <c r="D55" s="2" t="str">
         <f ca="1"/>
@@ -66451,7 +66451,7 @@
       </c>
       <c r="C56" s="2" t="str">
         <f ca="1"/>
-        <v>2_15_8018</v>
+        <v>2_15_5302</v>
       </c>
       <c r="D56" s="2" t="str">
         <f ca="1"/>
@@ -66488,7 +66488,7 @@
       </c>
       <c r="C57" s="2" t="str">
         <f ca="1"/>
-        <v>2_16_5100</v>
+        <v>2_16_7561</v>
       </c>
       <c r="D57" s="2" t="str">
         <f ca="1"/>
@@ -66525,7 +66525,7 @@
       </c>
       <c r="C58" s="2" t="str">
         <f ca="1"/>
-        <v>2_17_9462</v>
+        <v>2_17_8584</v>
       </c>
       <c r="D58" s="2" t="str">
         <f ca="1"/>
@@ -66562,7 +66562,7 @@
       </c>
       <c r="C59" s="2" t="str">
         <f ca="1"/>
-        <v>2_18_9747</v>
+        <v>2_18_3515</v>
       </c>
       <c r="D59" s="2" t="str">
         <f ca="1"/>
@@ -66599,7 +66599,7 @@
       </c>
       <c r="C60" s="2" t="str">
         <f ca="1"/>
-        <v>2_19_5664</v>
+        <v>2_19_9605</v>
       </c>
       <c r="D60" s="2" t="str">
         <f ca="1"/>
@@ -66636,7 +66636,7 @@
       </c>
       <c r="C61" s="2" t="str">
         <f ca="1"/>
-        <v>2_20_1608</v>
+        <v>2_20_2528</v>
       </c>
       <c r="D61" s="2" t="str">
         <f ca="1"/>
@@ -66673,7 +66673,7 @@
       </c>
       <c r="C62" s="2" t="str">
         <f ca="1"/>
-        <v>2_21_103</v>
+        <v>2_21_6627</v>
       </c>
       <c r="D62" s="2" t="str">
         <f ca="1"/>
@@ -66710,7 +66710,7 @@
       </c>
       <c r="C63" s="2" t="str">
         <f ca="1"/>
-        <v>2_22_5373</v>
+        <v>2_22_6734</v>
       </c>
       <c r="D63" s="2" t="str">
         <f ca="1"/>
@@ -66747,7 +66747,7 @@
       </c>
       <c r="C64" s="2" t="str">
         <f ca="1"/>
-        <v>2_23_8809</v>
+        <v>2_23_6937</v>
       </c>
       <c r="D64" s="2" t="str">
         <f ca="1"/>
@@ -66784,7 +66784,7 @@
       </c>
       <c r="C65" s="2" t="str">
         <f ca="1"/>
-        <v>2_24_9450</v>
+        <v>2_24_6615</v>
       </c>
       <c r="D65" s="2" t="str">
         <f ca="1"/>
@@ -66821,7 +66821,7 @@
       </c>
       <c r="C66" s="2" t="str">
         <f ca="1"/>
-        <v>2_25_8878</v>
+        <v>2_25_4236</v>
       </c>
       <c r="D66" s="2" t="str">
         <f ca="1"/>
@@ -66858,7 +66858,7 @@
       </c>
       <c r="C67" s="2" t="str">
         <f ca="1"/>
-        <v>2_26_4045</v>
+        <v>2_26_7494</v>
       </c>
       <c r="D67" s="2" t="str">
         <f ca="1"/>
@@ -66895,7 +66895,7 @@
       </c>
       <c r="C68" s="2" t="str">
         <f ca="1"/>
-        <v>2_27_1945</v>
+        <v>2_27_4814</v>
       </c>
       <c r="D68" s="2" t="str">
         <f ca="1"/>
@@ -66932,7 +66932,7 @@
       </c>
       <c r="C69" s="2" t="str">
         <f ca="1"/>
-        <v>2_28_4424</v>
+        <v>2_28_9666</v>
       </c>
       <c r="D69" s="2" t="str">
         <f ca="1"/>
@@ -66969,7 +66969,7 @@
       </c>
       <c r="C70" s="2" t="str">
         <f ca="1"/>
-        <v>2_29_4420</v>
+        <v>2_29_5370</v>
       </c>
       <c r="D70" s="2" t="str">
         <f ca="1"/>
@@ -67006,7 +67006,7 @@
       </c>
       <c r="C71" s="2" t="str">
         <f ca="1"/>
-        <v>2_30_777</v>
+        <v>2_30_4104</v>
       </c>
       <c r="D71" s="2" t="str">
         <f ca="1"/>
@@ -67043,7 +67043,7 @@
       </c>
       <c r="C72" s="2" t="str">
         <f ca="1"/>
-        <v>2_31_2387</v>
+        <v>2_31_719</v>
       </c>
       <c r="D72" s="2" t="str">
         <f ca="1"/>
@@ -67080,7 +67080,7 @@
       </c>
       <c r="C73" s="2" t="str">
         <f ca="1"/>
-        <v>2_32_5606</v>
+        <v>2_32_9112</v>
       </c>
       <c r="D73" s="2" t="str">
         <f ca="1"/>
@@ -67117,7 +67117,7 @@
       </c>
       <c r="C74" s="2" t="str">
         <f ca="1"/>
-        <v>2_33_5922</v>
+        <v>2_33_170</v>
       </c>
       <c r="D74" s="2" t="str">
         <f ca="1"/>
@@ -67154,7 +67154,7 @@
       </c>
       <c r="C75" s="2" t="str">
         <f ca="1"/>
-        <v>2_34_7139</v>
+        <v>2_34_1242</v>
       </c>
       <c r="D75" s="2" t="str">
         <f ca="1"/>
@@ -67191,7 +67191,7 @@
       </c>
       <c r="C76" s="2" t="str">
         <f ca="1"/>
-        <v>2_35_3098</v>
+        <v>2_35_5490</v>
       </c>
       <c r="D76" s="2" t="str">
         <f ca="1"/>
@@ -67228,7 +67228,7 @@
       </c>
       <c r="C77" s="2" t="str">
         <f ca="1"/>
-        <v>2_36_1625</v>
+        <v>2_36_8208</v>
       </c>
       <c r="D77" s="2" t="str">
         <f ca="1"/>
@@ -67265,7 +67265,7 @@
       </c>
       <c r="C78" s="2" t="str">
         <f ca="1"/>
-        <v>2_37_3346</v>
+        <v>2_37_2516</v>
       </c>
       <c r="D78" s="2" t="str">
         <f ca="1"/>
@@ -67302,7 +67302,7 @@
       </c>
       <c r="C79" s="2" t="str">
         <f ca="1"/>
-        <v>2_38_7658</v>
+        <v>2_38_4712</v>
       </c>
       <c r="D79" s="2" t="str">
         <f ca="1"/>
@@ -67339,7 +67339,7 @@
       </c>
       <c r="C80" s="2" t="str">
         <f ca="1"/>
-        <v>2_39_6112</v>
+        <v>2_39_2164</v>
       </c>
       <c r="D80" s="2" t="str">
         <f ca="1"/>
@@ -67376,7 +67376,7 @@
       </c>
       <c r="C81" s="2" t="str">
         <f ca="1"/>
-        <v>2_40_9318</v>
+        <v>2_40_4189</v>
       </c>
       <c r="D81" s="2" t="str">
         <f ca="1"/>
@@ -67413,7 +67413,7 @@
       </c>
       <c r="C82" s="2" t="str">
         <f ca="1"/>
-        <v>3_1_1654</v>
+        <v>3_1_9499</v>
       </c>
       <c r="D82" s="2" t="str">
         <f ca="1"/>
@@ -67450,7 +67450,7 @@
       </c>
       <c r="C83" s="2" t="str">
         <f ca="1"/>
-        <v>3_2_8782</v>
+        <v>3_2_7278</v>
       </c>
       <c r="D83" s="2" t="str">
         <f ca="1"/>
@@ -67487,7 +67487,7 @@
       </c>
       <c r="C84" s="2" t="str">
         <f ca="1"/>
-        <v>3_3_3921</v>
+        <v>3_3_1757</v>
       </c>
       <c r="D84" s="2" t="str">
         <f ca="1"/>
@@ -67524,7 +67524,7 @@
       </c>
       <c r="C85" s="2" t="str">
         <f ca="1"/>
-        <v>3_4_9868</v>
+        <v>3_4_6391</v>
       </c>
       <c r="D85" s="2" t="str">
         <f ca="1"/>
@@ -67561,7 +67561,7 @@
       </c>
       <c r="C86" s="2" t="str">
         <f ca="1"/>
-        <v>3_5_3236</v>
+        <v>3_5_7567</v>
       </c>
       <c r="D86" s="2" t="str">
         <f ca="1"/>
@@ -67598,7 +67598,7 @@
       </c>
       <c r="C87" s="2" t="str">
         <f ca="1"/>
-        <v>3_6_2166</v>
+        <v>3_6_5328</v>
       </c>
       <c r="D87" s="2" t="str">
         <f ca="1"/>
@@ -67635,7 +67635,7 @@
       </c>
       <c r="C88" s="2" t="str">
         <f ca="1"/>
-        <v>3_7_5825</v>
+        <v>3_7_5895</v>
       </c>
       <c r="D88" s="2" t="str">
         <f ca="1"/>
@@ -67672,7 +67672,7 @@
       </c>
       <c r="C89" s="2" t="str">
         <f ca="1"/>
-        <v>3_8_8</v>
+        <v>3_8_5199</v>
       </c>
       <c r="D89" s="2" t="str">
         <f ca="1"/>
@@ -67709,7 +67709,7 @@
       </c>
       <c r="C90" s="2" t="str">
         <f ca="1"/>
-        <v>3_9_1371</v>
+        <v>3_9_8858</v>
       </c>
       <c r="D90" s="2" t="str">
         <f ca="1"/>
@@ -67746,7 +67746,7 @@
       </c>
       <c r="C91" s="2" t="str">
         <f ca="1"/>
-        <v>3_10_5525</v>
+        <v>3_10_1878</v>
       </c>
       <c r="D91" s="2" t="str">
         <f ca="1"/>
@@ -67783,7 +67783,7 @@
       </c>
       <c r="C92" s="2" t="str">
         <f ca="1"/>
-        <v>3_11_536</v>
+        <v>3_11_9538</v>
       </c>
       <c r="D92" s="2" t="str">
         <f ca="1"/>
@@ -67820,7 +67820,7 @@
       </c>
       <c r="C93" s="2" t="str">
         <f ca="1"/>
-        <v>3_12_9849</v>
+        <v>3_12_5222</v>
       </c>
       <c r="D93" s="2" t="str">
         <f ca="1"/>
@@ -67857,7 +67857,7 @@
       </c>
       <c r="C94" s="2" t="str">
         <f ca="1"/>
-        <v>3_13_1485</v>
+        <v>3_13_4260</v>
       </c>
       <c r="D94" s="2" t="str">
         <f ca="1"/>
@@ -67894,7 +67894,7 @@
       </c>
       <c r="C95" s="2" t="str">
         <f ca="1"/>
-        <v>3_14_5280</v>
+        <v>3_14_8542</v>
       </c>
       <c r="D95" s="2" t="str">
         <f ca="1"/>
@@ -67931,7 +67931,7 @@
       </c>
       <c r="C96" s="2" t="str">
         <f ca="1"/>
-        <v>3_15_4560</v>
+        <v>3_15_256</v>
       </c>
       <c r="D96" s="2" t="str">
         <f ca="1"/>
@@ -67968,7 +67968,7 @@
       </c>
       <c r="C97" s="2" t="str">
         <f ca="1"/>
-        <v>3_16_7071</v>
+        <v>3_16_2564</v>
       </c>
       <c r="D97" s="2" t="str">
         <f ca="1"/>
@@ -68005,7 +68005,7 @@
       </c>
       <c r="C98" s="2" t="str">
         <f ca="1"/>
-        <v>3_17_3416</v>
+        <v>3_17_9197</v>
       </c>
       <c r="D98" s="2" t="str">
         <f ca="1"/>
@@ -68042,7 +68042,7 @@
       </c>
       <c r="C99" s="2" t="str">
         <f ca="1"/>
-        <v>3_18_6042</v>
+        <v>3_18_5899</v>
       </c>
       <c r="D99" s="2" t="str">
         <f ca="1"/>
@@ -68079,7 +68079,7 @@
       </c>
       <c r="C100" s="2" t="str">
         <f ca="1"/>
-        <v>3_19_8702</v>
+        <v>3_19_8687</v>
       </c>
       <c r="D100" s="2" t="str">
         <f ca="1"/>
@@ -68116,7 +68116,7 @@
       </c>
       <c r="C101" s="2" t="str">
         <f ca="1"/>
-        <v>3_20_306</v>
+        <v>3_20_4718</v>
       </c>
       <c r="D101" s="2" t="str">
         <f ca="1"/>
@@ -68153,7 +68153,7 @@
       </c>
       <c r="C102" s="2" t="str">
         <f ca="1"/>
-        <v>3_21_3575</v>
+        <v>3_21_7928</v>
       </c>
       <c r="D102" s="2" t="str">
         <f ca="1"/>
@@ -68190,7 +68190,7 @@
       </c>
       <c r="C103" s="2" t="str">
         <f ca="1"/>
-        <v>3_22_6683</v>
+        <v>3_22_3809</v>
       </c>
       <c r="D103" s="2" t="str">
         <f ca="1"/>
@@ -68227,7 +68227,7 @@
       </c>
       <c r="C104" s="2" t="str">
         <f ca="1"/>
-        <v>3_23_4827</v>
+        <v>3_23_6153</v>
       </c>
       <c r="D104" s="2" t="str">
         <f ca="1"/>
@@ -68264,7 +68264,7 @@
       </c>
       <c r="C105" s="2" t="str">
         <f ca="1"/>
-        <v>3_24_2034</v>
+        <v>3_24_9618</v>
       </c>
       <c r="D105" s="2" t="str">
         <f ca="1"/>
@@ -68301,7 +68301,7 @@
       </c>
       <c r="C106" s="2" t="str">
         <f ca="1"/>
-        <v>3_25_9393</v>
+        <v>3_25_1253</v>
       </c>
       <c r="D106" s="2" t="str">
         <f ca="1"/>
@@ -68338,7 +68338,7 @@
       </c>
       <c r="C107" s="2" t="str">
         <f ca="1"/>
-        <v>3_26_9289</v>
+        <v>3_26_5219</v>
       </c>
       <c r="D107" s="2" t="str">
         <f ca="1"/>
@@ -68375,7 +68375,7 @@
       </c>
       <c r="C108" s="2" t="str">
         <f ca="1"/>
-        <v>3_27_7429</v>
+        <v>3_27_8078</v>
       </c>
       <c r="D108" s="2" t="str">
         <f ca="1"/>
@@ -68412,7 +68412,7 @@
       </c>
       <c r="C109" s="2" t="str">
         <f ca="1"/>
-        <v>3_28_5701</v>
+        <v>3_28_2499</v>
       </c>
       <c r="D109" s="2" t="str">
         <f ca="1"/>
@@ -68449,7 +68449,7 @@
       </c>
       <c r="C110" s="2" t="str">
         <f ca="1"/>
-        <v>3_29_9173</v>
+        <v>3_29_661</v>
       </c>
       <c r="D110" s="2" t="str">
         <f ca="1"/>
@@ -68486,7 +68486,7 @@
       </c>
       <c r="C111" s="2" t="str">
         <f ca="1"/>
-        <v>3_30_6259</v>
+        <v>3_30_4494</v>
       </c>
       <c r="D111" s="2" t="str">
         <f ca="1"/>
@@ -68523,7 +68523,7 @@
       </c>
       <c r="C112" s="2" t="str">
         <f ca="1"/>
-        <v>3_31_9794</v>
+        <v>3_31_7357</v>
       </c>
       <c r="D112" s="2" t="str">
         <f ca="1"/>
@@ -68560,7 +68560,7 @@
       </c>
       <c r="C113" s="2" t="str">
         <f ca="1"/>
-        <v>3_32_4402</v>
+        <v>3_32_1355</v>
       </c>
       <c r="D113" s="2" t="str">
         <f ca="1"/>
@@ -68597,7 +68597,7 @@
       </c>
       <c r="C114" s="2" t="str">
         <f ca="1"/>
-        <v>3_33_8346</v>
+        <v>3_33_3372</v>
       </c>
       <c r="D114" s="2" t="str">
         <f ca="1"/>
@@ -68634,7 +68634,7 @@
       </c>
       <c r="C115" s="2" t="str">
         <f ca="1"/>
-        <v>3_34_453</v>
+        <v>3_34_5370</v>
       </c>
       <c r="D115" s="2" t="str">
         <f ca="1"/>
@@ -68671,7 +68671,7 @@
       </c>
       <c r="C116" s="2" t="str">
         <f ca="1"/>
-        <v>3_35_9324</v>
+        <v>3_35_9393</v>
       </c>
       <c r="D116" s="2" t="str">
         <f ca="1"/>
@@ -68708,7 +68708,7 @@
       </c>
       <c r="C117" s="2" t="str">
         <f ca="1"/>
-        <v>3_36_9279</v>
+        <v>3_36_2440</v>
       </c>
       <c r="D117" s="2" t="str">
         <f ca="1"/>
@@ -68745,7 +68745,7 @@
       </c>
       <c r="C118" s="2" t="str">
         <f ca="1"/>
-        <v>3_37_4468</v>
+        <v>3_37_1606</v>
       </c>
       <c r="D118" s="2" t="str">
         <f ca="1"/>
@@ -68782,7 +68782,7 @@
       </c>
       <c r="C119" s="2" t="str">
         <f ca="1"/>
-        <v>3_38_1014</v>
+        <v>3_38_912</v>
       </c>
       <c r="D119" s="2" t="str">
         <f ca="1"/>
@@ -68819,7 +68819,7 @@
       </c>
       <c r="C120" s="2" t="str">
         <f ca="1"/>
-        <v>3_39_6605</v>
+        <v>3_39_954</v>
       </c>
       <c r="D120" s="2" t="str">
         <f ca="1"/>
@@ -68856,7 +68856,7 @@
       </c>
       <c r="C121" s="2" t="str">
         <f ca="1"/>
-        <v>3_40_3934</v>
+        <v>3_40_9259</v>
       </c>
       <c r="D121" s="2" t="str">
         <f ca="1"/>
@@ -68893,7 +68893,7 @@
       </c>
       <c r="C122" s="2" t="str">
         <f ca="1"/>
-        <v>4_1_1888</v>
+        <v>4_1_861</v>
       </c>
       <c r="D122" s="2" t="str">
         <f ca="1"/>
@@ -68930,7 +68930,7 @@
       </c>
       <c r="C123" s="2" t="str">
         <f ca="1"/>
-        <v>4_2_7238</v>
+        <v>4_2_6748</v>
       </c>
       <c r="D123" s="2" t="str">
         <f ca="1"/>
@@ -68967,7 +68967,7 @@
       </c>
       <c r="C124" s="2" t="str">
         <f ca="1"/>
-        <v>4_3_7586</v>
+        <v>4_3_8634</v>
       </c>
       <c r="D124" s="2" t="str">
         <f ca="1"/>
@@ -69004,7 +69004,7 @@
       </c>
       <c r="C125" s="2" t="str">
         <f ca="1"/>
-        <v>4_4_9321</v>
+        <v>4_4_4575</v>
       </c>
       <c r="D125" s="2" t="str">
         <f ca="1"/>
@@ -69041,7 +69041,7 @@
       </c>
       <c r="C126" s="2" t="str">
         <f ca="1"/>
-        <v>4_5_1714</v>
+        <v>4_5_7930</v>
       </c>
       <c r="D126" s="2" t="str">
         <f ca="1"/>
@@ -69078,7 +69078,7 @@
       </c>
       <c r="C127" s="2" t="str">
         <f ca="1"/>
-        <v>4_6_6460</v>
+        <v>4_6_5247</v>
       </c>
       <c r="D127" s="2" t="str">
         <f ca="1"/>
@@ -69115,7 +69115,7 @@
       </c>
       <c r="C128" s="2" t="str">
         <f ca="1"/>
-        <v>4_7_7062</v>
+        <v>4_7_1163</v>
       </c>
       <c r="D128" s="2" t="str">
         <f ca="1"/>
@@ -69152,7 +69152,7 @@
       </c>
       <c r="C129" s="2" t="str">
         <f ca="1"/>
-        <v>4_8_1748</v>
+        <v>4_8_8591</v>
       </c>
       <c r="D129" s="2" t="str">
         <f ca="1"/>
@@ -69189,7 +69189,7 @@
       </c>
       <c r="C130" s="2" t="str">
         <f ca="1"/>
-        <v>4_9_9994</v>
+        <v>4_9_2471</v>
       </c>
       <c r="D130" s="2" t="str">
         <f ca="1"/>
@@ -69226,7 +69226,7 @@
       </c>
       <c r="C131" s="2" t="str">
         <f ca="1"/>
-        <v>4_10_3287</v>
+        <v>4_10_5729</v>
       </c>
       <c r="D131" s="2" t="str">
         <f ca="1"/>
@@ -69263,7 +69263,7 @@
       </c>
       <c r="C132" s="2" t="str">
         <f ca="1"/>
-        <v>4_11_4615</v>
+        <v>4_11_3947</v>
       </c>
       <c r="D132" s="2" t="str">
         <f ca="1"/>
@@ -69300,7 +69300,7 @@
       </c>
       <c r="C133" s="2" t="str">
         <f ca="1"/>
-        <v>4_12_8657</v>
+        <v>4_12_6450</v>
       </c>
       <c r="D133" s="2" t="str">
         <f ca="1"/>
@@ -69337,7 +69337,7 @@
       </c>
       <c r="C134" s="2" t="str">
         <f ca="1"/>
-        <v>4_13_2148</v>
+        <v>4_13_3773</v>
       </c>
       <c r="D134" s="2" t="str">
         <f ca="1"/>
@@ -69374,7 +69374,7 @@
       </c>
       <c r="C135" s="2" t="str">
         <f ca="1"/>
-        <v>4_14_466</v>
+        <v>4_14_4229</v>
       </c>
       <c r="D135" s="2" t="str">
         <f ca="1"/>
@@ -69411,7 +69411,7 @@
       </c>
       <c r="C136" s="2" t="str">
         <f ca="1"/>
-        <v>4_15_4089</v>
+        <v>4_15_7166</v>
       </c>
       <c r="D136" s="2" t="str">
         <f ca="1"/>
@@ -69448,7 +69448,7 @@
       </c>
       <c r="C137" s="2" t="str">
         <f ca="1"/>
-        <v>4_16_9901</v>
+        <v>4_16_4809</v>
       </c>
       <c r="D137" s="2" t="str">
         <f ca="1"/>
@@ -69485,7 +69485,7 @@
       </c>
       <c r="C138" s="2" t="str">
         <f ca="1"/>
-        <v>4_17_8540</v>
+        <v>4_17_5640</v>
       </c>
       <c r="D138" s="2" t="str">
         <f ca="1"/>
@@ -69522,7 +69522,7 @@
       </c>
       <c r="C139" s="2" t="str">
         <f ca="1"/>
-        <v>4_18_7208</v>
+        <v>4_18_944</v>
       </c>
       <c r="D139" s="2" t="str">
         <f ca="1"/>
@@ -69559,7 +69559,7 @@
       </c>
       <c r="C140" s="2" t="str">
         <f ca="1"/>
-        <v>4_19_2701</v>
+        <v>4_19_7244</v>
       </c>
       <c r="D140" s="2" t="str">
         <f ca="1"/>
@@ -69596,7 +69596,7 @@
       </c>
       <c r="C141" s="2" t="str">
         <f ca="1"/>
-        <v>4_20_8901</v>
+        <v>4_20_3301</v>
       </c>
       <c r="D141" s="2" t="str">
         <f ca="1"/>
@@ -69633,7 +69633,7 @@
       </c>
       <c r="C142" s="2" t="str">
         <f ca="1"/>
-        <v>4_21_5522</v>
+        <v>4_21_206</v>
       </c>
       <c r="D142" s="2" t="str">
         <f ca="1"/>
@@ -69670,7 +69670,7 @@
       </c>
       <c r="C143" s="2" t="str">
         <f ca="1"/>
-        <v>4_22_9800</v>
+        <v>4_22_16</v>
       </c>
       <c r="D143" s="2" t="str">
         <f ca="1"/>
@@ -69707,7 +69707,7 @@
       </c>
       <c r="C144" s="2" t="str">
         <f ca="1"/>
-        <v>4_23_9152</v>
+        <v>4_23_4928</v>
       </c>
       <c r="D144" s="2" t="str">
         <f ca="1"/>
@@ -69744,7 +69744,7 @@
       </c>
       <c r="C145" s="2" t="str">
         <f ca="1"/>
-        <v>4_24_2754</v>
+        <v>4_24_76</v>
       </c>
       <c r="D145" s="2" t="str">
         <f ca="1"/>
@@ -69781,7 +69781,7 @@
       </c>
       <c r="C146" s="2" t="str">
         <f ca="1"/>
-        <v>4_25_3968</v>
+        <v>4_25_5992</v>
       </c>
       <c r="D146" s="2" t="str">
         <f ca="1"/>
@@ -69818,7 +69818,7 @@
       </c>
       <c r="C147" s="2" t="str">
         <f ca="1"/>
-        <v>4_26_9374</v>
+        <v>4_26_3231</v>
       </c>
       <c r="D147" s="2" t="str">
         <f ca="1"/>
@@ -69855,7 +69855,7 @@
       </c>
       <c r="C148" s="2" t="str">
         <f ca="1"/>
-        <v>4_27_9133</v>
+        <v>4_27_7435</v>
       </c>
       <c r="D148" s="2" t="str">
         <f ca="1"/>
@@ -69892,7 +69892,7 @@
       </c>
       <c r="C149" s="2" t="str">
         <f ca="1"/>
-        <v>4_28_9736</v>
+        <v>4_28_1753</v>
       </c>
       <c r="D149" s="2" t="str">
         <f ca="1"/>
@@ -69929,7 +69929,7 @@
       </c>
       <c r="C150" s="2" t="str">
         <f ca="1"/>
-        <v>4_29_965</v>
+        <v>4_29_9967</v>
       </c>
       <c r="D150" s="2" t="str">
         <f ca="1"/>
@@ -69966,7 +69966,7 @@
       </c>
       <c r="C151" s="2" t="str">
         <f ca="1"/>
-        <v>4_30_9548</v>
+        <v>4_30_1533</v>
       </c>
       <c r="D151" s="2" t="str">
         <f ca="1"/>
@@ -70003,7 +70003,7 @@
       </c>
       <c r="C152" s="2" t="str">
         <f ca="1"/>
-        <v>4_31_7279</v>
+        <v>4_31_6133</v>
       </c>
       <c r="D152" s="2" t="str">
         <f ca="1"/>
@@ -70040,7 +70040,7 @@
       </c>
       <c r="C153" s="2" t="str">
         <f ca="1"/>
-        <v>4_32_4146</v>
+        <v>4_32_9124</v>
       </c>
       <c r="D153" s="2" t="str">
         <f ca="1"/>
@@ -70077,7 +70077,7 @@
       </c>
       <c r="C154" s="2" t="str">
         <f ca="1"/>
-        <v>4_33_3153</v>
+        <v>4_33_9239</v>
       </c>
       <c r="D154" s="2" t="str">
         <f ca="1"/>
@@ -70114,7 +70114,7 @@
       </c>
       <c r="C155" s="2" t="str">
         <f ca="1"/>
-        <v>4_34_2457</v>
+        <v>4_34_1461</v>
       </c>
       <c r="D155" s="2" t="str">
         <f ca="1"/>
@@ -70151,7 +70151,7 @@
       </c>
       <c r="C156" s="2" t="str">
         <f ca="1"/>
-        <v>4_35_6138</v>
+        <v>4_35_6488</v>
       </c>
       <c r="D156" s="2" t="str">
         <f ca="1"/>
@@ -70188,7 +70188,7 @@
       </c>
       <c r="C157" s="2" t="str">
         <f ca="1"/>
-        <v>4_36_7123</v>
+        <v>4_36_7949</v>
       </c>
       <c r="D157" s="2" t="str">
         <f ca="1"/>
@@ -70225,7 +70225,7 @@
       </c>
       <c r="C158" s="2" t="str">
         <f ca="1"/>
-        <v>4_37_6256</v>
+        <v>4_37_2549</v>
       </c>
       <c r="D158" s="2" t="str">
         <f ca="1"/>
@@ -70262,7 +70262,7 @@
       </c>
       <c r="C159" s="2" t="str">
         <f ca="1"/>
-        <v>4_38_7687</v>
+        <v>4_38_6019</v>
       </c>
       <c r="D159" s="2" t="str">
         <f ca="1"/>
@@ -70299,7 +70299,7 @@
       </c>
       <c r="C160" s="2" t="str">
         <f ca="1"/>
-        <v>4_39_9088</v>
+        <v>4_39_6997</v>
       </c>
       <c r="D160" s="2" t="str">
         <f ca="1"/>
@@ -70336,7 +70336,7 @@
       </c>
       <c r="C161" s="2" t="str">
         <f ca="1"/>
-        <v>4_40_2855</v>
+        <v>4_40_3763</v>
       </c>
       <c r="D161" s="2" t="str">
         <f ca="1"/>
@@ -70373,7 +70373,7 @@
       </c>
       <c r="C162" s="2" t="str">
         <f ca="1"/>
-        <v>5_1_3576</v>
+        <v>5_1_9804</v>
       </c>
       <c r="D162" s="2" t="str">
         <f ca="1"/>
@@ -70410,7 +70410,7 @@
       </c>
       <c r="C163" s="2" t="str">
         <f ca="1"/>
-        <v>5_2_9697</v>
+        <v>5_2_8708</v>
       </c>
       <c r="D163" s="2" t="str">
         <f ca="1"/>
@@ -70447,7 +70447,7 @@
       </c>
       <c r="C164" s="2" t="str">
         <f ca="1"/>
-        <v>5_3_6849</v>
+        <v>5_3_8987</v>
       </c>
       <c r="D164" s="2" t="str">
         <f ca="1"/>
@@ -70484,7 +70484,7 @@
       </c>
       <c r="C165" s="2" t="str">
         <f ca="1"/>
-        <v>5_4_1505</v>
+        <v>5_4_360</v>
       </c>
       <c r="D165" s="2" t="str">
         <f ca="1"/>
@@ -70521,7 +70521,7 @@
       </c>
       <c r="C166" s="2" t="str">
         <f ca="1"/>
-        <v>5_5_5705</v>
+        <v>5_5_4500</v>
       </c>
       <c r="D166" s="2" t="str">
         <f ca="1"/>
@@ -70558,7 +70558,7 @@
       </c>
       <c r="C167" s="2" t="str">
         <f ca="1"/>
-        <v>5_6_722</v>
+        <v>5_6_1300</v>
       </c>
       <c r="D167" s="2" t="str">
         <f ca="1"/>
@@ -70595,7 +70595,7 @@
       </c>
       <c r="C168" s="2" t="str">
         <f ca="1"/>
-        <v>5_7_4933</v>
+        <v>5_7_7516</v>
       </c>
       <c r="D168" s="2" t="str">
         <f ca="1"/>
@@ -70632,7 +70632,7 @@
       </c>
       <c r="C169" s="2" t="str">
         <f ca="1"/>
-        <v>5_8_185</v>
+        <v>5_8_9858</v>
       </c>
       <c r="D169" s="2" t="str">
         <f ca="1"/>
@@ -70669,7 +70669,7 @@
       </c>
       <c r="C170" s="2" t="str">
         <f ca="1"/>
-        <v>5_9_3278</v>
+        <v>5_9_4329</v>
       </c>
       <c r="D170" s="2" t="str">
         <f ca="1"/>
@@ -70706,7 +70706,7 @@
       </c>
       <c r="C171" s="2" t="str">
         <f ca="1"/>
-        <v>5_10_9419</v>
+        <v>5_10_3310</v>
       </c>
       <c r="D171" s="2" t="str">
         <f ca="1"/>
@@ -70743,7 +70743,7 @@
       </c>
       <c r="C172" s="2" t="str">
         <f ca="1"/>
-        <v>5_11_7852</v>
+        <v>5_11_9347</v>
       </c>
       <c r="D172" s="2" t="str">
         <f ca="1"/>
@@ -70780,7 +70780,7 @@
       </c>
       <c r="C173" s="2" t="str">
         <f ca="1"/>
-        <v>5_12_6972</v>
+        <v>5_12_9177</v>
       </c>
       <c r="D173" s="2" t="str">
         <f ca="1"/>
@@ -70817,7 +70817,7 @@
       </c>
       <c r="C174" s="2" t="str">
         <f ca="1"/>
-        <v>5_13_6774</v>
+        <v>5_13_5168</v>
       </c>
       <c r="D174" s="2" t="str">
         <f ca="1"/>
@@ -70854,7 +70854,7 @@
       </c>
       <c r="C175" s="2" t="str">
         <f ca="1"/>
-        <v>5_14_781</v>
+        <v>5_14_6883</v>
       </c>
       <c r="D175" s="2" t="str">
         <f ca="1"/>
@@ -70891,7 +70891,7 @@
       </c>
       <c r="C176" s="2" t="str">
         <f ca="1"/>
-        <v>5_15_9728</v>
+        <v>5_15_8685</v>
       </c>
       <c r="D176" s="2" t="str">
         <f ca="1"/>
@@ -70928,7 +70928,7 @@
       </c>
       <c r="C177" s="2" t="str">
         <f ca="1"/>
-        <v>5_16_9844</v>
+        <v>5_16_6311</v>
       </c>
       <c r="D177" s="2" t="str">
         <f ca="1"/>
@@ -70965,7 +70965,7 @@
       </c>
       <c r="C178" s="2" t="str">
         <f ca="1"/>
-        <v>5_17_6075</v>
+        <v>5_17_9266</v>
       </c>
       <c r="D178" s="2" t="str">
         <f ca="1"/>
@@ -71002,7 +71002,7 @@
       </c>
       <c r="C179" s="2" t="str">
         <f ca="1"/>
-        <v>5_18_5957</v>
+        <v>5_18_6102</v>
       </c>
       <c r="D179" s="2" t="str">
         <f ca="1"/>
@@ -71039,7 +71039,7 @@
       </c>
       <c r="C180" s="2" t="str">
         <f ca="1"/>
-        <v>5_19_1560</v>
+        <v>5_19_7199</v>
       </c>
       <c r="D180" s="2" t="str">
         <f ca="1"/>
@@ -71076,7 +71076,7 @@
       </c>
       <c r="C181" s="2" t="str">
         <f ca="1"/>
-        <v>5_20_2524</v>
+        <v>5_20_3801</v>
       </c>
       <c r="D181" s="2" t="str">
         <f ca="1"/>
@@ -71113,7 +71113,7 @@
       </c>
       <c r="C182" s="2" t="str">
         <f ca="1"/>
-        <v>5_21_3885</v>
+        <v>5_21_4969</v>
       </c>
       <c r="D182" s="2" t="str">
         <f ca="1"/>
@@ -71150,7 +71150,7 @@
       </c>
       <c r="C183" s="2" t="str">
         <f ca="1"/>
-        <v>5_22_4717</v>
+        <v>5_22_9981</v>
       </c>
       <c r="D183" s="2" t="str">
         <f ca="1"/>
@@ -71187,7 +71187,7 @@
       </c>
       <c r="C184" s="2" t="str">
         <f ca="1"/>
-        <v>5_23_5285</v>
+        <v>5_23_7789</v>
       </c>
       <c r="D184" s="2" t="str">
         <f ca="1"/>
@@ -71224,7 +71224,7 @@
       </c>
       <c r="C185" s="2" t="str">
         <f ca="1"/>
-        <v>5_24_2733</v>
+        <v>5_24_1250</v>
       </c>
       <c r="D185" s="2" t="str">
         <f ca="1"/>
@@ -71261,7 +71261,7 @@
       </c>
       <c r="C186" s="2" t="str">
         <f ca="1"/>
-        <v>5_25_6146</v>
+        <v>5_25_8235</v>
       </c>
       <c r="D186" s="2" t="str">
         <f ca="1"/>
@@ -71298,7 +71298,7 @@
       </c>
       <c r="C187" s="2" t="str">
         <f ca="1"/>
-        <v>5_26_8005</v>
+        <v>5_26_6987</v>
       </c>
       <c r="D187" s="2" t="str">
         <f ca="1"/>
@@ -71335,7 +71335,7 @@
       </c>
       <c r="C188" s="2" t="str">
         <f ca="1"/>
-        <v>5_27_783</v>
+        <v>5_27_6011</v>
       </c>
       <c r="D188" s="2" t="str">
         <f ca="1"/>
@@ -71372,7 +71372,7 @@
       </c>
       <c r="C189" s="2" t="str">
         <f ca="1"/>
-        <v>5_28_4409</v>
+        <v>5_28_7793</v>
       </c>
       <c r="D189" s="2" t="str">
         <f ca="1"/>
@@ -71409,7 +71409,7 @@
       </c>
       <c r="C190" s="2" t="str">
         <f ca="1"/>
-        <v>5_29_9034</v>
+        <v>5_29_8245</v>
       </c>
       <c r="D190" s="2" t="str">
         <f ca="1"/>
@@ -71446,7 +71446,7 @@
       </c>
       <c r="C191" s="2" t="str">
         <f ca="1"/>
-        <v>5_30_8925</v>
+        <v>5_30_8584</v>
       </c>
       <c r="D191" s="2" t="str">
         <f ca="1"/>
@@ -71483,7 +71483,7 @@
       </c>
       <c r="C192" s="2" t="str">
         <f ca="1"/>
-        <v>5_31_7810</v>
+        <v>5_31_2139</v>
       </c>
       <c r="D192" s="2" t="str">
         <f ca="1"/>
@@ -71520,7 +71520,7 @@
       </c>
       <c r="C193" s="2" t="str">
         <f ca="1"/>
-        <v>5_32_2393</v>
+        <v>5_32_559</v>
       </c>
       <c r="D193" s="2" t="str">
         <f ca="1"/>
@@ -71557,7 +71557,7 @@
       </c>
       <c r="C194" s="2" t="str">
         <f ca="1"/>
-        <v>5_33_4140</v>
+        <v>5_33_4704</v>
       </c>
       <c r="D194" s="2" t="str">
         <f ca="1"/>
@@ -71594,7 +71594,7 @@
       </c>
       <c r="C195" s="2" t="str">
         <f ca="1"/>
-        <v>5_34_5943</v>
+        <v>5_34_4788</v>
       </c>
       <c r="D195" s="2" t="str">
         <f ca="1"/>
@@ -71631,7 +71631,7 @@
       </c>
       <c r="C196" s="2" t="str">
         <f ca="1"/>
-        <v>5_35_6538</v>
+        <v>5_35_7039</v>
       </c>
       <c r="D196" s="2" t="str">
         <f ca="1"/>
@@ -71668,7 +71668,7 @@
       </c>
       <c r="C197" s="2" t="str">
         <f ca="1"/>
-        <v>5_36_5422</v>
+        <v>5_36_9360</v>
       </c>
       <c r="D197" s="2" t="str">
         <f ca="1"/>
@@ -71705,7 +71705,7 @@
       </c>
       <c r="C198" s="2" t="str">
         <f ca="1"/>
-        <v>5_37_2212</v>
+        <v>5_37_1668</v>
       </c>
       <c r="D198" s="2" t="str">
         <f ca="1"/>
@@ -71742,7 +71742,7 @@
       </c>
       <c r="C199" s="2" t="str">
         <f ca="1"/>
-        <v>5_38_4481</v>
+        <v>5_38_523</v>
       </c>
       <c r="D199" s="2" t="str">
         <f ca="1"/>
@@ -71779,7 +71779,7 @@
       </c>
       <c r="C200" s="2" t="str">
         <f ca="1"/>
-        <v>5_39_8312</v>
+        <v>5_39_1507</v>
       </c>
       <c r="D200" s="2" t="str">
         <f ca="1"/>
@@ -71816,7 +71816,7 @@
       </c>
       <c r="C201" s="2" t="str">
         <f ca="1"/>
-        <v>5_40_7617</v>
+        <v>5_40_5229</v>
       </c>
       <c r="D201" s="2" t="str">
         <f ca="1"/>
